--- a/cms/Variables.xlsx
+++ b/cms/Variables.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6730"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16340" windowHeight="5170"/>
   </bookViews>
   <sheets>
     <sheet name="Variables" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="203">
   <si>
     <t>Link</t>
   </si>
@@ -27,6 +27,48 @@
     <t>Content</t>
   </si>
   <si>
+    <t>YEAR-NOW</t>
+  </si>
+  <si>
+    <t>LOCATION</t>
+  </si>
+  <si>
+    <t>a secret location</t>
+  </si>
+  <si>
+    <t>NAME</t>
+  </si>
+  <si>
+    <t>Pedro PSI</t>
+  </si>
+  <si>
+    <t>MOSAIC-TEXT</t>
+  </si>
+  <si>
+    <t>Clicking on the mosaic above will change this page's background. Try it!</t>
+  </si>
+  <si>
+    <t>YEAR-START</t>
+  </si>
+  <si>
+    <t>ME</t>
+  </si>
+  <si>
+    <t>me</t>
+  </si>
+  <si>
+    <t>MY</t>
+  </si>
+  <si>
+    <t>my</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>I'm</t>
+  </si>
+  <si>
     <t>SITE-NAME</t>
   </si>
   <si>
@@ -108,7 +150,7 @@
     <t>RATING-FORM-URL</t>
   </si>
   <si>
-    <t>action="https://script.google.com/macros/s/AKfycbwuyyGb7XP7H91GH_8tZrXh6y_fjbZg4vSxl6S8xvAAEdyoIHcS/exec</t>
+    <t>action="https://script.google.com/macros/s/AKfycbwuyyGb7XP7H91GH_8tZrXh6y_fjbZg4vSxl6S8xvAAEdyoIHcS/exec"</t>
   </si>
   <si>
     <t>RSS-SITE-DESCRIPTION</t>
@@ -156,7 +198,7 @@
     <t>HALL-OF-FAME-URL</t>
   </si>
   <si>
-    <t>action="https://script.google.com/macros/s/AKfycbzgwZUKFmuNQin6Kq4-kTMBSZtz9TapE6kxpZyk7p2tRaanLD1w/exec</t>
+    <t>action="https://script.google.com/macros/s/AKfycbzgwZUKFmuNQin6Kq4-kTMBSZtz9TapE6kxpZyk7p2tRaanLD1w/exec"</t>
   </si>
   <si>
     <t>HALL-OF-FAME-DORM-ID</t>
@@ -213,10 +255,379 @@
     <t>https://script.google.com/macros/s/AKfycbzJnrnkaamwSWZbNKhgNxX4bNRx53A14LpaRQcGWQ/exec</t>
   </si>
   <si>
-    <t>FEEDBACK-FORM_URL</t>
-  </si>
-  <si>
-    <t>https://script.google.com/macros/s/AKfycbwB-a8j-INbkzTiQFJ55qETLYkdZrRvSg2s8urj9bPbG0XkBg9z/exec</t>
+    <t>GUESTBOOK-VIEW-LEGACY</t>
+  </si>
+  <si>
+    <t>https://docs.google.com/spreadsheets/d/e/2PACX-1vQwd7CTU3k1HsrT4fPLljY9HSW5eWbOv118H3zn5nsRg6Uc1b_aTg577hjFoHLPCUbKAEmht603qmc7/pubhtml?gid=2036979410&amp;single=true&amp;widget=false&amp;chrome=false&amp;headers=false</t>
+  </si>
+  <si>
+    <t>GUESTBOOK-DISPLAY-URL</t>
+  </si>
+  <si>
+    <t>https://script.google.com/macros/s/AKfycbzbI9ht52-sWmNcVi4SpQvjhyTtEdSJxTPpfqwuSDTPlQfJJfc/exec</t>
+  </si>
+  <si>
+    <t>GUESTBOOK-DISPLAY</t>
+  </si>
+  <si>
+    <t>OverwriteData("«GUESTBOOK-DISPLAY-URL»","guestbook-area",d=&gt;MakeGuestbook(JSON.parse(d)))</t>
+  </si>
+  <si>
+    <t>BEACON-ANALYTICS</t>
+  </si>
+  <si>
+    <t>&lt;script data-cfasync="false" type="text/javascript"  src="codes/analytics.js"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>BEACON-COM</t>
+  </si>
+  <si>
+    <t>&lt;script data-cfasync="false" type="text/javascript"  src="codes/communication.js"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>ARCHIVE-OF-POST-BY-DATE</t>
+  </si>
+  <si>
+    <t>«ARCHIVE-SECTION:SubUnique{"Year"}»</t>
+  </si>
+  <si>
+    <t>ARCHIVE-OF-CLASS</t>
+  </si>
+  <si>
+    <t>«ARCHIVE-CLASS:Filter{"Type"-&gt;"Tag","Tags"-&gt;_}»</t>
+  </si>
+  <si>
+    <t>ARCHIVE-CLASS</t>
+  </si>
+  <si>
+    <t>&lt;h3&gt;&lt;a href="«LINK:Load».html"&gt;«Post:Load»&lt;/a&gt;&lt;/h3&gt;</t>
+  </si>
+  <si>
+    <t>ARCHIVE-TAG</t>
+  </si>
+  <si>
+    <t>«TAGSELECT:Filter{"Type"-&gt;"Post","Tags"-&gt;_?(StringMatchQ[#,___~~"«TAGS:Load»"~~___]&amp;)}»</t>
+  </si>
+  <si>
+    <t>CONTACTAREA</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="«CONTACT_FORM_SRC»" width="100%" height="500px" frameborder="0" marginheight="0" marginwidth="0"&gt;Loading...&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>MARKDOWN</t>
+  </si>
+  <si>
+    <t>&lt;script type="text/javascript" src="codes/loader.js"&gt; LoadText("posts/«LINK:LOAD».txt"); &lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>NAV-LINK</t>
+  </si>
+  <si>
+    <t>&lt;a href="«LINK:Load».html" class="nav-link" style="max-width: 728px;"&gt;«TITLE:Load»&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>NAV-LOGO</t>
+  </si>
+  <si>
+    <t>&lt;a href="index.html"&gt;&lt;div class="logo"&gt;&lt;/div&gt;&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>PICTURE</t>
+  </si>
+  <si>
+    <t>&lt;img src="images/«IMAGE:Load»" alt="«IMAGEALT:Load»"/&gt;</t>
+  </si>
+  <si>
+    <t>RAINBOWLINE</t>
+  </si>
+  <si>
+    <t>&lt;div class="rainbowline"&gt;&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>FOOTER-AREA</t>
+  </si>
+  <si>
+    <t>&lt;div class="footer"&gt;«FOOTER-LINES»&lt;/div&gt;«BEACON-ANALYTICS»«BEACON-COM»</t>
+  </si>
+  <si>
+    <t>FIGURE</t>
+  </si>
+  <si>
+    <t>&lt;div class="figure"&gt;«PICTURE»&lt;div class="legend"&gt;«CONTENT:Load»&lt;/div&gt;&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>PUZZLE-SCRIPT</t>
+  </si>
+  <si>
+    <t>«PUZZLE-LOAD»</t>
+  </si>
+  <si>
+    <t>PUZZLE-LOAD</t>
+  </si>
+  <si>
+    <t>&lt;script type="text/javascript"&gt;PuzzleScript.embed(document.getElementById('«PUZZLE-MARK»'),"«CONTENT:Load»");&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>PUZZLE-MARK</t>
+  </si>
+  <si>
+    <t>puzzlescript-game</t>
+  </si>
+  <si>
+    <t>PUZZLE-SCRIPT-PRE</t>
+  </si>
+  <si>
+    <t>&lt;link href="codes/game/puzzlescript-mobile.css" rel="stylesheet" type="text/css"&gt;&lt;script src="codes/game/puzzlescript-embed.js" type="text/javascript"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>GUESTBOOK-ADD</t>
+  </si>
+  <si>
+    <t>&lt;div class="button centered" onclick="RequestGuestbook()"&gt;Leave your message!&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>CONTACT-TEXT-1</t>
+  </si>
+  <si>
+    <t>&lt;a href='contact.html'&gt;contact «NAME»&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>CONTACT-TEXT-2</t>
+  </si>
+  <si>
+    <t>&lt;a href='contact.html'&gt;get in touch&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>CONTACT-TEXT-3</t>
+  </si>
+  <si>
+    <t>&lt;a href='contact.html'&gt;let «ME» know&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>CONTACT-TEXT-4</t>
+  </si>
+  <si>
+    <t>&lt;a href='contact.html'&gt;«I»'d love to hear from you!&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>CONTACT-TEXT-5</t>
+  </si>
+  <si>
+    <t>&lt;a href='contact.html'&gt;welcome&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>CONTACT-TEXT-6</t>
+  </si>
+  <si>
+    <t>&lt;a href='contact.html'&gt;Drop «ME» a line!&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>COPYRIGHT</t>
+  </si>
+  <si>
+    <t>Copyright «NAME» «YEAR-START»-«YEAR-NOW», all rights reserved.</t>
+  </si>
+  <si>
+    <t>COPYRIGHT-TEXT</t>
+  </si>
+  <si>
+    <t>© «NAME» «YEAR-START»-«YEAR-NOW».</t>
+  </si>
+  <si>
+    <t>LICENSE</t>
+  </si>
+  <si>
+    <t>&lt;a «BLANK» href='https://creativecommons.org/licenses/by-nc-sa/4.0/'&gt;CC BY-NC-SA 4.0&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>target='_blank'</t>
+  </si>
+  <si>
+    <t>ABOUT-TEXT</t>
+  </si>
+  <si>
+    <t>&lt;h2&gt;About «TITLE:Load»&lt;/h2&gt;</t>
+  </si>
+  <si>
+    <t>HOWTO-TEXT</t>
+  </si>
+  <si>
+    <t>&lt;h2&gt;How to play&lt;/h2&gt;&lt;h3&gt;Controls - keyboard&lt;/h3&gt;</t>
+  </si>
+  <si>
+    <t>GAME-EXTRAS-TEXT</t>
+  </si>
+  <si>
+    <t>«TOUCHSCREEN-TEXT»«FEEDBACK-TEXT»«NAVIGATION-TEXT»«HALL-OF-FAME-TEXT-SHORT»«COMMUNITY»</t>
+  </si>
+  <si>
+    <t>NAVIGATION-TEXT</t>
+  </si>
+  <si>
+    <t>&lt;h3&gt;Level navigation&lt;/h3&gt;&lt;p&gt;Navigate to a previously uncovered level by pressing the &lt;b&gt;lateral buttons&lt;/b&gt; beside the game screen. These buttons appear and disappear as needed.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>TOUCHSCREEN-TEXT</t>
+  </si>
+  <si>
+    <t>&lt;h3&gt;Controls - touchscreen&lt;/h3&gt;&lt;p&gt;&lt;b&gt;Tap&lt;/b&gt; to simulate &lt;em&gt;pressing X&lt;/em&gt; and &lt;b&gt;swipe&lt;/b&gt; to simulate an &lt;em&gt;arrow keypress&lt;/em&gt;.&lt;/p&gt;&lt;p&gt;Open the tab on the left beside the game to: «CONTROLS:Load» &lt;em&gt;restart&lt;/em&gt; and &lt;em&gt;return to menu&lt;/em&gt;.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>UNDO-TOUCH-TEXT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;em&gt;undo&lt;/em&gt;, </t>
+  </si>
+  <si>
+    <t>UNDO-RESTART-TEXT</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;«UNDO-TEXT» «RESTART-TEXT»&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>RESTART-TEXT</t>
+  </si>
+  <si>
+    <t>Press &lt;b&gt;R&lt;/b&gt; to restart the level.</t>
+  </si>
+  <si>
+    <t>UNDO-TEXT</t>
+  </si>
+  <si>
+    <t>Press &lt;b&gt;Z&lt;/b&gt; to undo a move.</t>
+  </si>
+  <si>
+    <t>FEEDBACK-TEXT</t>
+  </si>
+  <si>
+    <t>&lt;h3&gt;Real-time feedback&lt;/h3&gt;&lt;p&gt;Press &lt;b&gt;F&lt;/b&gt; anytime to provide real-time feedback! Much appreciated!&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>AVATAR-TEXT</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Control your &lt;em&gt;avatar&lt;/em&gt; with the &lt;b&gt;arrow keys&lt;/b&gt;.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>CREDITS</t>
+  </si>
+  <si>
+    <t>&lt;h2&gt;Credits&lt;/h2&gt;&lt;p&gt;&lt;a href="«SITE»/«LINK:Load».html"&gt;«TITLE:Load»&lt;/a&gt; by &lt;a href="«SITE»"&gt;«NAME»&lt;/a&gt;, «YEAR:Load».&lt;/p&gt;«CREDITS-MUSIC»«CREDITS-ENGINE-SUPPORT»</t>
+  </si>
+  <si>
+    <t>CREDITS-MUSIC</t>
+  </si>
+  <si>
+    <t>&lt;h3&gt;Music&lt;/h3&gt;&lt;p&gt;&lt;b&gt;&lt;em&gt;«MUSIC-TITLE:Load»&lt;/em&gt;&lt;/b&gt; by &lt;a href='«MUSIC-LINK:Load»' id='music-author' «BLANK»&gt;&lt;b&gt;«MUSIC-AUTHOR:Load»&lt;/b&gt;&lt;/a&gt;.</t>
+  </si>
+  <si>
+    <t>CREDITS-ENGINE-SUPPORT</t>
+  </si>
+  <si>
+    <t>&lt;h3&gt;Game Engine&lt;/h3&gt;«PUZZLESCRIPT-TEXT»«SOURCE-TEXT»«PATREON-GAME»</t>
+  </si>
+  <si>
+    <t>PUZZLESCRIPT-TEXT</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Made with &lt;a «BLANK» href='http://puzzlescript.net'&gt;Puzzlescript&lt;/a&gt;. &lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>SOURCE-TEXT</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Inspect the &lt;a «BLANK» href='http://puzzlescript.net/editor.html?hack=«CONTENT:Load»'&gt;&lt;b&gt;source&lt;/b&gt;&lt;/a&gt; freely, but consider &lt;a «BLANK» href='«DONATE-LINK»'&gt;&lt;b&gt;supporting the «SITE-NAME»&lt;/b&gt;&lt;/a&gt;!&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>DONATE-LINK</t>
+  </si>
+  <si>
+    <t>2018-02-08-support-the-archive.html</t>
+  </si>
+  <si>
+    <t>FOOTER-LINES</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;«COPYRIGHT-TEXT»  &lt;a href='terms-of-use.html'&gt;Terms of Use&lt;/a&gt;  &lt;a href='privacy-policy.html'&gt;Privacy Policy&lt;/a&gt;&lt;/p&gt;&lt;p&gt;«NIGHTMODE»  «RSS-SUBSCRIBE»&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>NIGHTMODE</t>
+  </si>
+  <si>
+    <t>&lt;span id="NightMode" onclick='toggleNightMode()'&gt; ☾ Darken&lt;/span&gt;</t>
+  </si>
+  <si>
+    <t>HOF</t>
+  </si>
+  <si>
+    <t>&lt;a href='hall-of-fame.html'&gt;&lt;b&gt;Hall of Fame&lt;/b&gt;&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>HALL-OF-FAME-TEXT-SHORT</t>
+  </si>
+  <si>
+    <t>&lt;h2&gt;Hall of fame&lt;/h2&gt;&lt;p&gt;Once you beat «TITLE:Load», you'll be invited to enter the «HOF»! As soon as you pass the final credits screen after winning, you'll be able to type your name in a new window. &lt;em&gt;Press Submit&lt;/em&gt; to be &lt;b&gt;remembered forever&lt;/b&gt; or &lt;em&gt;close the window&lt;/em&gt; to &lt;b&gt;forsake your glory&lt;/b&gt;.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>HALL-OF-FAME-TEXT</t>
+  </si>
+  <si>
+    <t>«HALL-OF-FAME-TEXT-SHORT» &lt;p&gt;Record-keeping started March 26th 2018, so if you've beaten this game before this date you'll have to beat it again to enter the «HOF»&lt;/p&gt;.</t>
+  </si>
+  <si>
+    <t>PATREON-TEXT</t>
+  </si>
+  <si>
+    <t>&lt;a href='«PATREON-URL»' «BLANK»&gt;Support «TITLE:Load» on &lt;b&gt;Patreon&lt;/b&gt;!&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>PATREON-BUTTON</t>
+  </si>
+  <si>
+    <t>&lt;a href='«PATREON-URL»' «BLANK»&gt;&lt;img src='«PATREON-IMG-URL»' alt='Sponsor the «SITE-NAME»'&gt;&lt;/img&gt;&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>PATREON-BECOME-SPONSOR</t>
+  </si>
+  <si>
+    <t>&lt;div class='patreon-b'&gt;«PATREON-BUTTON»&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>PATREON-GAME</t>
+  </si>
+  <si>
+    <t>«PATREON-BECOME-SPONSOR»</t>
+  </si>
+  <si>
+    <t>DISCORD-CHANNEL</t>
+  </si>
+  <si>
+    <t>&lt;h3&gt;Forums&lt;/h3&gt;&lt;p&gt;Comment and discuss «Title:Load» on the dedicated &lt;a href='«DISCORD-PREFIX»/«FORUMS:Load»' «BLANK»&gt;&lt;b&gt;discord channel!&lt;/b&gt;&lt;/a&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>COMMUNITY</t>
+  </si>
+  <si>
+    <t>&lt;h2&gt;Community&lt;/h2&gt;«GUESTBOOK-MESSAGE»«DISCORD-CHANNEL»</t>
+  </si>
+  <si>
+    <t>STAY-TUNED</t>
+  </si>
+  <si>
+    <t>&lt;a href='«RSS-PATH»'&gt;&lt;b&gt;stay tuned!&lt;/b&gt;&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>GUESTBOOK-POST-TEXT</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Enjoyed «TITLE:Load»? Add &lt;b&gt;your message&lt;/b&gt; below to the «SITE-NAME»'s &lt;a href="guestbook.html"&gt;guestbook&lt;/a&gt;!&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>GUESTBOOK-MESSAGE</t>
+  </si>
+  <si>
+    <t>&lt;h3&gt;Guestbook&lt;/h3&gt;«GUESTBOOK-POST-TEXT»«GUESTBOOK-ADD»</t>
   </si>
 </sst>
 </file>
@@ -1023,14 +1434,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B34"/>
+  <dimension ref="A1:B106"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="25.7265625" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
@@ -1044,264 +1452,840 @@
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
-        <v>3</v>
+      <c r="B2">
+        <v>2018</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
         <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
         <v>6</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
         <v>8</v>
-      </c>
-      <c r="B5" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" t="s">
-        <v>11</v>
+        <v>9</v>
+      </c>
+      <c r="B6">
+        <v>2010</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B10" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B11" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B15" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B16" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B17">
-        <v>7</v>
+        <v>28</v>
+      </c>
+      <c r="B17" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B18" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B19" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B20" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>39</v>
-      </c>
-      <c r="B21">
-        <v>7</v>
+        <v>36</v>
+      </c>
+      <c r="B21" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B22" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B23" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B24" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B25" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>48</v>
-      </c>
-      <c r="B26" t="s">
-        <v>49</v>
+        <v>46</v>
+      </c>
+      <c r="B26">
+        <v>7</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B27" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B28" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B29" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>56</v>
-      </c>
-      <c r="B30" t="s">
-        <v>57</v>
+        <v>53</v>
+      </c>
+      <c r="B30">
+        <v>7</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B31" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B32" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B33" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
+        <v>60</v>
+      </c>
+      <c r="B34" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>62</v>
+      </c>
+      <c r="B35" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
         <v>64</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B36" t="s">
         <v>65</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>66</v>
+      </c>
+      <c r="B37" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>68</v>
+      </c>
+      <c r="B38" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>70</v>
+      </c>
+      <c r="B39" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>72</v>
+      </c>
+      <c r="B40" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>74</v>
+      </c>
+      <c r="B41" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
+        <v>76</v>
+      </c>
+      <c r="B42" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
+        <v>78</v>
+      </c>
+      <c r="B43" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
+        <v>80</v>
+      </c>
+      <c r="B44" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
+        <v>82</v>
+      </c>
+      <c r="B45" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
+        <v>84</v>
+      </c>
+      <c r="B46" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
+        <v>86</v>
+      </c>
+      <c r="B47" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A48" t="s">
+        <v>88</v>
+      </c>
+      <c r="B48" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A49" t="s">
+        <v>90</v>
+      </c>
+      <c r="B49" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A50" t="s">
+        <v>92</v>
+      </c>
+      <c r="B50" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A51" t="s">
+        <v>94</v>
+      </c>
+      <c r="B51" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A52" t="s">
+        <v>96</v>
+      </c>
+      <c r="B52" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A53" t="s">
+        <v>98</v>
+      </c>
+      <c r="B53" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A54" t="s">
+        <v>100</v>
+      </c>
+      <c r="B54" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A55" t="s">
+        <v>102</v>
+      </c>
+      <c r="B55" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A56" t="s">
+        <v>104</v>
+      </c>
+      <c r="B56" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A57" t="s">
+        <v>106</v>
+      </c>
+      <c r="B57" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A58" t="s">
+        <v>108</v>
+      </c>
+      <c r="B58" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A59" t="s">
+        <v>98</v>
+      </c>
+      <c r="B59" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A60" t="s">
+        <v>110</v>
+      </c>
+      <c r="B60" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A61" t="s">
+        <v>112</v>
+      </c>
+      <c r="B61" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A62" t="s">
+        <v>114</v>
+      </c>
+      <c r="B62" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A63" t="s">
+        <v>116</v>
+      </c>
+      <c r="B63" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A64" t="s">
+        <v>118</v>
+      </c>
+      <c r="B64" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A65" t="s">
+        <v>120</v>
+      </c>
+      <c r="B65" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A66" t="s">
+        <v>122</v>
+      </c>
+      <c r="B66" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A67" t="s">
+        <v>124</v>
+      </c>
+      <c r="B67" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A68" t="s">
+        <v>126</v>
+      </c>
+      <c r="B68" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A69" t="s">
+        <v>128</v>
+      </c>
+      <c r="B69" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A70" t="s">
+        <v>130</v>
+      </c>
+      <c r="B70" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A71" t="s">
+        <v>132</v>
+      </c>
+      <c r="B71" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A72" t="s">
+        <v>134</v>
+      </c>
+      <c r="B72" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A73" t="s">
+        <v>136</v>
+      </c>
+      <c r="B73" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A74" t="s">
+        <v>138</v>
+      </c>
+      <c r="B74" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A75" t="s">
+        <v>36</v>
+      </c>
+      <c r="B75" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A76" t="s">
+        <v>141</v>
+      </c>
+      <c r="B76" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A77" t="s">
+        <v>143</v>
+      </c>
+      <c r="B77" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A78" t="s">
+        <v>145</v>
+      </c>
+      <c r="B78" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A79" t="s">
+        <v>147</v>
+      </c>
+      <c r="B79" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A80" t="s">
+        <v>149</v>
+      </c>
+      <c r="B80" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A81" t="s">
+        <v>151</v>
+      </c>
+      <c r="B81" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A82" t="s">
+        <v>153</v>
+      </c>
+      <c r="B82" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A83" t="s">
+        <v>155</v>
+      </c>
+      <c r="B83" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A84" t="s">
+        <v>157</v>
+      </c>
+      <c r="B84" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A85" t="s">
+        <v>159</v>
+      </c>
+      <c r="B85" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A86" t="s">
+        <v>161</v>
+      </c>
+      <c r="B86" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A87" t="s">
+        <v>163</v>
+      </c>
+      <c r="B87" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A88" t="s">
+        <v>165</v>
+      </c>
+      <c r="B88" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A89" t="s">
+        <v>167</v>
+      </c>
+      <c r="B89" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A90" t="s">
+        <v>169</v>
+      </c>
+      <c r="B90" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A91" t="s">
+        <v>171</v>
+      </c>
+      <c r="B91" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A92" t="s">
+        <v>173</v>
+      </c>
+      <c r="B92" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A93" t="s">
+        <v>175</v>
+      </c>
+      <c r="B93" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A94" t="s">
+        <v>177</v>
+      </c>
+      <c r="B94" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A95" t="s">
+        <v>179</v>
+      </c>
+      <c r="B95" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A96" t="s">
+        <v>181</v>
+      </c>
+      <c r="B96" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A97" t="s">
+        <v>183</v>
+      </c>
+      <c r="B97" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A98" t="s">
+        <v>185</v>
+      </c>
+      <c r="B98" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A99" t="s">
+        <v>187</v>
+      </c>
+      <c r="B99" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A100" t="s">
+        <v>189</v>
+      </c>
+      <c r="B100" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A101" t="s">
+        <v>191</v>
+      </c>
+      <c r="B101" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A102" t="s">
+        <v>193</v>
+      </c>
+      <c r="B102" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A103" t="s">
+        <v>195</v>
+      </c>
+      <c r="B103" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A104" t="s">
+        <v>197</v>
+      </c>
+      <c r="B104" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A105" t="s">
+        <v>199</v>
+      </c>
+      <c r="B105" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A106" t="s">
+        <v>201</v>
+      </c>
+      <c r="B106" t="s">
+        <v>202</v>
       </c>
     </row>
   </sheetData>

--- a/cms/Variables.xlsx
+++ b/cms/Variables.xlsx
@@ -14,12 +14,12 @@
   <sheets>
     <sheet name="Variables" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="209">
   <si>
     <t>Link</t>
   </si>
@@ -360,9 +360,6 @@
     <t>PUZZLE-SCRIPT</t>
   </si>
   <si>
-    <t>«PUZZLE-LOAD»</t>
-  </si>
-  <si>
     <t>PUZZLE-LOAD</t>
   </si>
   <si>
@@ -622,6 +619,27 @@
   </si>
   <si>
     <t>&lt;p&gt;Enjoyed «TITLE:Load»? Add &lt;b&gt;your message&lt;/b&gt; below to the «SITE-NAME»'s &lt;a href="guestbook.html"&gt;guestbook&lt;/a&gt;!&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>GAME-EXTRAS-NONAV-TEXT</t>
+  </si>
+  <si>
+    <t>«TOUCHSCREEN-TEXT»«FEEDBACK-TEXT»«HALL-OF-FAME-TEXT-SHORT»«COMMUNITY»</t>
+  </si>
+  <si>
+    <t>GAME-NAVIGATION</t>
+  </si>
+  <si>
+    <t>&lt;div id="GameBW" class="gameNav" onclick="GoToLevelPrev()"&gt;Previous level&lt;/div&gt;&lt;div id="GameFW" class="gameNav" onclick="GoToLevelNext()"&gt;Next level&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>HONOURS-TIARADVENTUR</t>
+  </si>
+  <si>
+    <t>&lt;script type="text/javascript" src="codes/game/honours-tiaradventur.js"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>«PUZZLE-LOAD»«HONOURS:LOAD»</t>
   </si>
   <si>
     <t>GUESTBOOK-MESSAGE</t>
@@ -1434,9 +1452,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B106"/>
+  <dimension ref="A1:B109"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A101" workbookViewId="0">
+      <selection activeCell="B111" sqref="B111"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
@@ -1922,370 +1942,394 @@
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>112</v>
+        <v>204</v>
       </c>
       <c r="B61" t="s">
-        <v>113</v>
+        <v>205</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B62" t="s">
-        <v>115</v>
+        <v>206</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B63" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B64" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B65" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B66" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B67" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B68" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B69" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B70" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B71" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B72" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B73" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B74" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
-        <v>36</v>
+        <v>137</v>
       </c>
       <c r="B75" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
-        <v>141</v>
+        <v>36</v>
       </c>
       <c r="B76" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B77" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B78" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B79" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
-        <v>149</v>
+        <v>200</v>
       </c>
       <c r="B80" t="s">
-        <v>150</v>
+        <v>201</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
-        <v>151</v>
+        <v>202</v>
       </c>
       <c r="B81" t="s">
-        <v>152</v>
+        <v>203</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="B82" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="B83" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="B84" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="B85" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="B86" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="B87" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="B88" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="B89" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="B90" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="B91" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="B92" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="B93" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="B94" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="B95" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="B96" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="B97" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="B98" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="B99" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="B100" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="B101" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="B102" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="B103" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="B104" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="B105" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="B106" t="s">
-        <v>202</v>
+        <v>195</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A107" t="s">
+        <v>196</v>
+      </c>
+      <c r="B107" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A108" t="s">
+        <v>198</v>
+      </c>
+      <c r="B108" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A109" t="s">
+        <v>207</v>
+      </c>
+      <c r="B109" t="s">
+        <v>208</v>
       </c>
     </row>
   </sheetData>

--- a/cms/Variables.xlsx
+++ b/cms/Variables.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="211">
   <si>
     <t>Link</t>
   </si>
@@ -336,9 +336,6 @@
     <t>PICTURE</t>
   </si>
   <si>
-    <t>&lt;img src="images/«IMAGE:Load»" alt="«IMAGEALT:Load»"/&gt;</t>
-  </si>
-  <si>
     <t>RAINBOWLINE</t>
   </si>
   <si>
@@ -444,208 +441,217 @@
     <t>ABOUT-TEXT</t>
   </si>
   <si>
+    <t>HOWTO-TEXT</t>
+  </si>
+  <si>
+    <t>GAME-EXTRAS-TEXT</t>
+  </si>
+  <si>
+    <t>NAVIGATION-TEXT</t>
+  </si>
+  <si>
+    <t>&lt;h3&gt;Level navigation&lt;/h3&gt;&lt;p&gt;Navigate to a previously uncovered level by pressing the &lt;b&gt;lateral buttons&lt;/b&gt; beside the game screen. These buttons appear and disappear as needed.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>TOUCHSCREEN-TEXT</t>
+  </si>
+  <si>
+    <t>&lt;h3&gt;Controls - touchscreen&lt;/h3&gt;&lt;p&gt;&lt;b&gt;Tap&lt;/b&gt; to simulate &lt;em&gt;pressing X&lt;/em&gt; and &lt;b&gt;swipe&lt;/b&gt; to simulate an &lt;em&gt;arrow keypress&lt;/em&gt;.&lt;/p&gt;&lt;p&gt;Open the tab on the left beside the game to: «CONTROLS:Load» &lt;em&gt;restart&lt;/em&gt; and &lt;em&gt;return to menu&lt;/em&gt;.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>UNDO-TOUCH-TEXT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;em&gt;undo&lt;/em&gt;, </t>
+  </si>
+  <si>
+    <t>UNDO-RESTART-TEXT</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;«UNDO-TEXT» «RESTART-TEXT»&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>RESTART-TEXT</t>
+  </si>
+  <si>
+    <t>Press &lt;b&gt;R&lt;/b&gt; to restart the level.</t>
+  </si>
+  <si>
+    <t>UNDO-TEXT</t>
+  </si>
+  <si>
+    <t>Press &lt;b&gt;Z&lt;/b&gt; to undo a move.</t>
+  </si>
+  <si>
+    <t>FEEDBACK-TEXT</t>
+  </si>
+  <si>
+    <t>&lt;h3&gt;Real-time feedback&lt;/h3&gt;&lt;p&gt;Press &lt;b&gt;F&lt;/b&gt; anytime to provide real-time feedback! Much appreciated!&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>AVATAR-TEXT</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Control your &lt;em&gt;avatar&lt;/em&gt; with the &lt;b&gt;arrow keys&lt;/b&gt;.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>CREDITS</t>
+  </si>
+  <si>
+    <t>&lt;h2&gt;Credits&lt;/h2&gt;&lt;p&gt;&lt;a href="«SITE»/«LINK:Load».html"&gt;«TITLE:Load»&lt;/a&gt; by &lt;a href="«SITE»"&gt;«NAME»&lt;/a&gt;, «YEAR:Load».&lt;/p&gt;«CREDITS-MUSIC»«CREDITS-ENGINE-SUPPORT»</t>
+  </si>
+  <si>
+    <t>CREDITS-MUSIC</t>
+  </si>
+  <si>
+    <t>&lt;h3&gt;Music&lt;/h3&gt;&lt;p&gt;&lt;b&gt;&lt;em&gt;«MUSIC-TITLE:Load»&lt;/em&gt;&lt;/b&gt; by &lt;a href='«MUSIC-LINK:Load»' id='music-author' «BLANK»&gt;&lt;b&gt;«MUSIC-AUTHOR:Load»&lt;/b&gt;&lt;/a&gt;.</t>
+  </si>
+  <si>
+    <t>CREDITS-ENGINE-SUPPORT</t>
+  </si>
+  <si>
+    <t>&lt;h3&gt;Game Engine&lt;/h3&gt;«PUZZLESCRIPT-TEXT»«SOURCE-TEXT»«PATREON-GAME»</t>
+  </si>
+  <si>
+    <t>PUZZLESCRIPT-TEXT</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Made with &lt;a «BLANK» href='http://puzzlescript.net'&gt;Puzzlescript&lt;/a&gt;. &lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>SOURCE-TEXT</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Inspect the &lt;a «BLANK» href='http://puzzlescript.net/editor.html?hack=«CONTENT:Load»'&gt;&lt;b&gt;source&lt;/b&gt;&lt;/a&gt; freely, but consider &lt;a «BLANK» href='«DONATE-LINK»'&gt;&lt;b&gt;supporting the «SITE-NAME»&lt;/b&gt;&lt;/a&gt;!&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>DONATE-LINK</t>
+  </si>
+  <si>
+    <t>2018-02-08-support-the-archive.html</t>
+  </si>
+  <si>
+    <t>FOOTER-LINES</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;«COPYRIGHT-TEXT»  &lt;a href='terms-of-use.html'&gt;Terms of Use&lt;/a&gt;  &lt;a href='privacy-policy.html'&gt;Privacy Policy&lt;/a&gt;&lt;/p&gt;&lt;p&gt;«NIGHTMODE»  «RSS-SUBSCRIBE»&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>NIGHTMODE</t>
+  </si>
+  <si>
+    <t>HOF</t>
+  </si>
+  <si>
+    <t>&lt;a href='hall-of-fame.html'&gt;&lt;b&gt;Hall of Fame&lt;/b&gt;&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>HALL-OF-FAME-TEXT-SHORT</t>
+  </si>
+  <si>
+    <t>&lt;h2&gt;Hall of fame&lt;/h2&gt;&lt;p&gt;Once you beat «TITLE:Load», you'll be invited to enter the «HOF»! As soon as you pass the final credits screen after winning, you'll be able to type your name in a new window. &lt;em&gt;Press Submit&lt;/em&gt; to be &lt;b&gt;remembered forever&lt;/b&gt; or &lt;em&gt;close the window&lt;/em&gt; to &lt;b&gt;forsake your glory&lt;/b&gt;.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>HALL-OF-FAME-TEXT</t>
+  </si>
+  <si>
+    <t>«HALL-OF-FAME-TEXT-SHORT» &lt;p&gt;Record-keeping started March 26th 2018, so if you've beaten this game before this date you'll have to beat it again to enter the «HOF»&lt;/p&gt;.</t>
+  </si>
+  <si>
+    <t>PATREON-TEXT</t>
+  </si>
+  <si>
+    <t>&lt;a href='«PATREON-URL»' «BLANK»&gt;Support «TITLE:Load» on &lt;b&gt;Patreon&lt;/b&gt;!&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>PATREON-BUTTON</t>
+  </si>
+  <si>
+    <t>&lt;a href='«PATREON-URL»' «BLANK»&gt;&lt;img src='«PATREON-IMG-URL»' alt='Sponsor the «SITE-NAME»'&gt;&lt;/img&gt;&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>PATREON-BECOME-SPONSOR</t>
+  </si>
+  <si>
+    <t>&lt;div class='patreon-b'&gt;«PATREON-BUTTON»&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>PATREON-GAME</t>
+  </si>
+  <si>
+    <t>«PATREON-BECOME-SPONSOR»</t>
+  </si>
+  <si>
+    <t>DISCORD-CHANNEL</t>
+  </si>
+  <si>
+    <t>&lt;h3&gt;Forums&lt;/h3&gt;&lt;p&gt;Comment and discuss «Title:Load» on the dedicated &lt;a href='«DISCORD-PREFIX»/«FORUMS:Load»' «BLANK»&gt;&lt;b&gt;discord channel!&lt;/b&gt;&lt;/a&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>COMMUNITY</t>
+  </si>
+  <si>
+    <t>&lt;h2&gt;Community&lt;/h2&gt;«GUESTBOOK-MESSAGE»«DISCORD-CHANNEL»</t>
+  </si>
+  <si>
+    <t>STAY-TUNED</t>
+  </si>
+  <si>
+    <t>&lt;a href='«RSS-PATH»'&gt;&lt;b&gt;stay tuned!&lt;/b&gt;&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>GUESTBOOK-POST-TEXT</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Enjoyed «TITLE:Load»? Add &lt;b&gt;your message&lt;/b&gt; below to the «SITE-NAME»'s &lt;a href="guestbook.html"&gt;guestbook&lt;/a&gt;!&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>GAME-EXTRAS-NONAV-TEXT</t>
+  </si>
+  <si>
+    <t>«TOUCHSCREEN-TEXT»«FEEDBACK-TEXT»«HALL-OF-FAME-TEXT-SHORT»«COMMUNITY»</t>
+  </si>
+  <si>
+    <t>GAME-NAVIGATION</t>
+  </si>
+  <si>
+    <t>&lt;div id="GameBW" class="gameNav" onclick="GoToLevelPrev()"&gt;Previous level&lt;/div&gt;&lt;div id="GameFW" class="gameNav" onclick="GoToLevelNext()"&gt;Next level&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>HONOURS-TIARADVENTUR</t>
+  </si>
+  <si>
+    <t>&lt;script type="text/javascript" src="codes/game/honours-tiaradventur.js"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>«PUZZLE-LOAD»«HONOURS:LOAD»</t>
+  </si>
+  <si>
+    <t>GUESTBOOK-MESSAGE</t>
+  </si>
+  <si>
+    <t>&lt;h3&gt;Guestbook&lt;/h3&gt;«GUESTBOOK-POST-TEXT»«GUESTBOOK-ADD»</t>
+  </si>
+  <si>
+    <t>&lt;img src="images/«IMAGE:Load»" alt="«IMAGEALT:Load»" title="«IMAGEALT:Load»"/&gt;</t>
+  </si>
+  <si>
+    <t>FIGURE-SIMPLE</t>
+  </si>
+  <si>
+    <t>&lt;div class="figure"&gt;«PICTURE»&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>«TOUCHSCREEN-TEXT»«FEEDBACK-TEXT»«NAVIGATION-TEXT»«HALL-OF-FAME-TEXT-SHORT»«COMMUNITY»</t>
+  </si>
+  <si>
     <t>&lt;h2&gt;About «TITLE:Load»&lt;/h2&gt;</t>
   </si>
   <si>
-    <t>HOWTO-TEXT</t>
-  </si>
-  <si>
-    <t>&lt;h2&gt;How to play&lt;/h2&gt;&lt;h3&gt;Controls - keyboard&lt;/h3&gt;</t>
-  </si>
-  <si>
-    <t>GAME-EXTRAS-TEXT</t>
-  </si>
-  <si>
-    <t>«TOUCHSCREEN-TEXT»«FEEDBACK-TEXT»«NAVIGATION-TEXT»«HALL-OF-FAME-TEXT-SHORT»«COMMUNITY»</t>
-  </si>
-  <si>
-    <t>NAVIGATION-TEXT</t>
-  </si>
-  <si>
-    <t>&lt;h3&gt;Level navigation&lt;/h3&gt;&lt;p&gt;Navigate to a previously uncovered level by pressing the &lt;b&gt;lateral buttons&lt;/b&gt; beside the game screen. These buttons appear and disappear as needed.&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>TOUCHSCREEN-TEXT</t>
-  </si>
-  <si>
-    <t>&lt;h3&gt;Controls - touchscreen&lt;/h3&gt;&lt;p&gt;&lt;b&gt;Tap&lt;/b&gt; to simulate &lt;em&gt;pressing X&lt;/em&gt; and &lt;b&gt;swipe&lt;/b&gt; to simulate an &lt;em&gt;arrow keypress&lt;/em&gt;.&lt;/p&gt;&lt;p&gt;Open the tab on the left beside the game to: «CONTROLS:Load» &lt;em&gt;restart&lt;/em&gt; and &lt;em&gt;return to menu&lt;/em&gt;.&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>UNDO-TOUCH-TEXT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;em&gt;undo&lt;/em&gt;, </t>
-  </si>
-  <si>
-    <t>UNDO-RESTART-TEXT</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;«UNDO-TEXT» «RESTART-TEXT»&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>RESTART-TEXT</t>
-  </si>
-  <si>
-    <t>Press &lt;b&gt;R&lt;/b&gt; to restart the level.</t>
-  </si>
-  <si>
-    <t>UNDO-TEXT</t>
-  </si>
-  <si>
-    <t>Press &lt;b&gt;Z&lt;/b&gt; to undo a move.</t>
-  </si>
-  <si>
-    <t>FEEDBACK-TEXT</t>
-  </si>
-  <si>
-    <t>&lt;h3&gt;Real-time feedback&lt;/h3&gt;&lt;p&gt;Press &lt;b&gt;F&lt;/b&gt; anytime to provide real-time feedback! Much appreciated!&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>AVATAR-TEXT</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Control your &lt;em&gt;avatar&lt;/em&gt; with the &lt;b&gt;arrow keys&lt;/b&gt;.&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>CREDITS</t>
-  </si>
-  <si>
-    <t>&lt;h2&gt;Credits&lt;/h2&gt;&lt;p&gt;&lt;a href="«SITE»/«LINK:Load».html"&gt;«TITLE:Load»&lt;/a&gt; by &lt;a href="«SITE»"&gt;«NAME»&lt;/a&gt;, «YEAR:Load».&lt;/p&gt;«CREDITS-MUSIC»«CREDITS-ENGINE-SUPPORT»</t>
-  </si>
-  <si>
-    <t>CREDITS-MUSIC</t>
-  </si>
-  <si>
-    <t>&lt;h3&gt;Music&lt;/h3&gt;&lt;p&gt;&lt;b&gt;&lt;em&gt;«MUSIC-TITLE:Load»&lt;/em&gt;&lt;/b&gt; by &lt;a href='«MUSIC-LINK:Load»' id='music-author' «BLANK»&gt;&lt;b&gt;«MUSIC-AUTHOR:Load»&lt;/b&gt;&lt;/a&gt;.</t>
-  </si>
-  <si>
-    <t>CREDITS-ENGINE-SUPPORT</t>
-  </si>
-  <si>
-    <t>&lt;h3&gt;Game Engine&lt;/h3&gt;«PUZZLESCRIPT-TEXT»«SOURCE-TEXT»«PATREON-GAME»</t>
-  </si>
-  <si>
-    <t>PUZZLESCRIPT-TEXT</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Made with &lt;a «BLANK» href='http://puzzlescript.net'&gt;Puzzlescript&lt;/a&gt;. &lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>SOURCE-TEXT</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Inspect the &lt;a «BLANK» href='http://puzzlescript.net/editor.html?hack=«CONTENT:Load»'&gt;&lt;b&gt;source&lt;/b&gt;&lt;/a&gt; freely, but consider &lt;a «BLANK» href='«DONATE-LINK»'&gt;&lt;b&gt;supporting the «SITE-NAME»&lt;/b&gt;&lt;/a&gt;!&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>DONATE-LINK</t>
-  </si>
-  <si>
-    <t>2018-02-08-support-the-archive.html</t>
-  </si>
-  <si>
-    <t>FOOTER-LINES</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;«COPYRIGHT-TEXT»  &lt;a href='terms-of-use.html'&gt;Terms of Use&lt;/a&gt;  &lt;a href='privacy-policy.html'&gt;Privacy Policy&lt;/a&gt;&lt;/p&gt;&lt;p&gt;«NIGHTMODE»  «RSS-SUBSCRIBE»&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>NIGHTMODE</t>
-  </si>
-  <si>
-    <t>&lt;span id="NightMode" onclick='toggleNightMode()'&gt; ☾ Darken&lt;/span&gt;</t>
-  </si>
-  <si>
-    <t>HOF</t>
-  </si>
-  <si>
-    <t>&lt;a href='hall-of-fame.html'&gt;&lt;b&gt;Hall of Fame&lt;/b&gt;&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>HALL-OF-FAME-TEXT-SHORT</t>
-  </si>
-  <si>
-    <t>&lt;h2&gt;Hall of fame&lt;/h2&gt;&lt;p&gt;Once you beat «TITLE:Load», you'll be invited to enter the «HOF»! As soon as you pass the final credits screen after winning, you'll be able to type your name in a new window. &lt;em&gt;Press Submit&lt;/em&gt; to be &lt;b&gt;remembered forever&lt;/b&gt; or &lt;em&gt;close the window&lt;/em&gt; to &lt;b&gt;forsake your glory&lt;/b&gt;.&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>HALL-OF-FAME-TEXT</t>
-  </si>
-  <si>
-    <t>«HALL-OF-FAME-TEXT-SHORT» &lt;p&gt;Record-keeping started March 26th 2018, so if you've beaten this game before this date you'll have to beat it again to enter the «HOF»&lt;/p&gt;.</t>
-  </si>
-  <si>
-    <t>PATREON-TEXT</t>
-  </si>
-  <si>
-    <t>&lt;a href='«PATREON-URL»' «BLANK»&gt;Support «TITLE:Load» on &lt;b&gt;Patreon&lt;/b&gt;!&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>PATREON-BUTTON</t>
-  </si>
-  <si>
-    <t>&lt;a href='«PATREON-URL»' «BLANK»&gt;&lt;img src='«PATREON-IMG-URL»' alt='Sponsor the «SITE-NAME»'&gt;&lt;/img&gt;&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>PATREON-BECOME-SPONSOR</t>
-  </si>
-  <si>
-    <t>&lt;div class='patreon-b'&gt;«PATREON-BUTTON»&lt;/div&gt;</t>
-  </si>
-  <si>
-    <t>PATREON-GAME</t>
-  </si>
-  <si>
-    <t>«PATREON-BECOME-SPONSOR»</t>
-  </si>
-  <si>
-    <t>DISCORD-CHANNEL</t>
-  </si>
-  <si>
-    <t>&lt;h3&gt;Forums&lt;/h3&gt;&lt;p&gt;Comment and discuss «Title:Load» on the dedicated &lt;a href='«DISCORD-PREFIX»/«FORUMS:Load»' «BLANK»&gt;&lt;b&gt;discord channel!&lt;/b&gt;&lt;/a&gt;&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>COMMUNITY</t>
-  </si>
-  <si>
-    <t>&lt;h2&gt;Community&lt;/h2&gt;«GUESTBOOK-MESSAGE»«DISCORD-CHANNEL»</t>
-  </si>
-  <si>
-    <t>STAY-TUNED</t>
-  </si>
-  <si>
-    <t>&lt;a href='«RSS-PATH»'&gt;&lt;b&gt;stay tuned!&lt;/b&gt;&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>GUESTBOOK-POST-TEXT</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Enjoyed «TITLE:Load»? Add &lt;b&gt;your message&lt;/b&gt; below to the «SITE-NAME»'s &lt;a href="guestbook.html"&gt;guestbook&lt;/a&gt;!&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>GAME-EXTRAS-NONAV-TEXT</t>
-  </si>
-  <si>
-    <t>«TOUCHSCREEN-TEXT»«FEEDBACK-TEXT»«HALL-OF-FAME-TEXT-SHORT»«COMMUNITY»</t>
-  </si>
-  <si>
-    <t>GAME-NAVIGATION</t>
-  </si>
-  <si>
-    <t>&lt;div id="GameBW" class="gameNav" onclick="GoToLevelPrev()"&gt;Previous level&lt;/div&gt;&lt;div id="GameFW" class="gameNav" onclick="GoToLevelNext()"&gt;Next level&lt;/div&gt;</t>
-  </si>
-  <si>
-    <t>HONOURS-TIARADVENTUR</t>
-  </si>
-  <si>
-    <t>&lt;script type="text/javascript" src="codes/game/honours-tiaradventur.js"&gt;&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>«PUZZLE-LOAD»«HONOURS:LOAD»</t>
-  </si>
-  <si>
-    <t>GUESTBOOK-MESSAGE</t>
-  </si>
-  <si>
-    <t>&lt;h3&gt;Guestbook&lt;/h3&gt;«GUESTBOOK-POST-TEXT»«GUESTBOOK-ADD»</t>
+    <t>«FIGURE-SIMPLE»&lt;h2&gt;How to play&lt;/h2&gt;&lt;h3&gt;Controls - keyboard&lt;/h3&gt;</t>
+  </si>
+  <si>
+    <t>&lt;span id="NightMode" onclick='toggleNightMode()'&gt; Darken&lt;/span&gt;</t>
   </si>
 </sst>
 </file>
@@ -1452,10 +1458,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B109"/>
+  <dimension ref="A1:B110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A101" workbookViewId="0">
-      <selection activeCell="B111" sqref="B111"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:B110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1905,23 +1911,23 @@
         <v>104</v>
       </c>
       <c r="B56" t="s">
-        <v>105</v>
+        <v>204</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
+        <v>105</v>
+      </c>
+      <c r="B57" t="s">
         <v>106</v>
-      </c>
-      <c r="B57" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
+        <v>107</v>
+      </c>
+      <c r="B58" t="s">
         <v>108</v>
-      </c>
-      <c r="B58" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.35">
@@ -1934,402 +1940,410 @@
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
+        <v>109</v>
+      </c>
+      <c r="B60" t="s">
         <v>110</v>
-      </c>
-      <c r="B60" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B61" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>112</v>
+        <v>199</v>
       </c>
       <c r="B62" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B63" t="s">
-        <v>114</v>
+        <v>201</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B64" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B65" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B66" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B67" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B68" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B69" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B70" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B71" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B72" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B73" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B74" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B75" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
-        <v>36</v>
+        <v>136</v>
       </c>
       <c r="B76" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
-        <v>140</v>
+        <v>36</v>
       </c>
       <c r="B77" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B78" t="s">
-        <v>143</v>
+        <v>208</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="B79" t="s">
-        <v>145</v>
+        <v>209</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
-        <v>200</v>
+        <v>141</v>
       </c>
       <c r="B80" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="B81" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
-        <v>146</v>
+        <v>197</v>
       </c>
       <c r="B82" t="s">
-        <v>147</v>
+        <v>198</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="B83" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="B84" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="B85" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="B86" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="B87" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="B88" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="B89" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="B90" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="B91" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="B92" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="B93" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="B94" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="B95" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="B96" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="B97" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="B98" t="s">
-        <v>179</v>
+        <v>210</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="B99" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="B100" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="B101" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="B102" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="B103" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="B104" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="B105" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="B106" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="B107" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="B108" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
-        <v>207</v>
+        <v>193</v>
       </c>
       <c r="B109" t="s">
-        <v>208</v>
+        <v>194</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A110" t="s">
+        <v>202</v>
+      </c>
+      <c r="B110" t="s">
+        <v>203</v>
       </c>
     </row>
   </sheetData>

--- a/cms/Variables.xlsx
+++ b/cms/Variables.xlsx
@@ -19,339 +19,525 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="213">
+  <si>
+    <t>Content</t>
+  </si>
+  <si>
+    <t>a secret location</t>
+  </si>
+  <si>
+    <t>Pedro PSI</t>
+  </si>
+  <si>
+    <t>Clicking on the mosaic above will change this page's background. Try it!</t>
+  </si>
+  <si>
+    <t>me</t>
+  </si>
+  <si>
+    <t>my</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>I'm</t>
+  </si>
+  <si>
+    <t>Creative Archive</t>
+  </si>
+  <si>
+    <t>https://pedropsi.github.io</t>
+  </si>
+  <si>
+    <t>http://pedropsi.github.io</t>
+  </si>
+  <si>
+    <t>images/logo.png</t>
+  </si>
+  <si>
+    <t>&lt;a href="«CSSPATH»"&gt;"Octaflower Theme" by «NAME»&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>codes/index.css</t>
+  </si>
+  <si>
+    <t>images/splash.png</t>
+  </si>
+  <si>
+    <t>images/favicon-32x32.png</t>
+  </si>
+  <si>
+    <t>splash.png</t>
+  </si>
+  <si>
+    <t>target="_blank"</t>
+  </si>
+  <si>
+    <t>https://docs.google.com/forms/d/e/1FAIpQLSc7pMuScBJIJesW4LMXdegzH2nJh5tbnwR8PmqZvyMhNrUl8A/viewform?embedded=true</t>
+  </si>
+  <si>
+    <t>https://docs.google.com/spreadsheets/d/1hySpQzOdDriPZIx7wG9XQzj_L-cvUmlPYS2odywqhUI/edit#gid=0</t>
+  </si>
+  <si>
+    <t>action="https://script.google.com/macros/s/AKfycbwuyyGb7XP7H91GH_8tZrXh6y_fjbZg4vSxl6S8xvAAEdyoIHcS/exec"</t>
+  </si>
+  <si>
+    <t>Don't miss out on novelties from The «SITE-NAME»!</t>
+  </si>
+  <si>
+    <t>rss.xml</t>
+  </si>
+  <si>
+    <t>«SITE»/«RSS-PATH»</t>
+  </si>
+  <si>
+    <t>&lt;svg viewBox="0 0 98.918 100" xml:space="preserve"&gt;&lt;ellipse cx="13.566" cy="86.286" rx="13.566" ry="13.714"/&gt;&lt;path d="M65.569,100H46.35c0-25.879-20.752-46.858-46.35-46.858l0,0V33.715C36.214,33.715,65.569,63.391,65.569,100z"/&gt;&lt;path d="M79.135,100c0-44.183-35.429-80-79.135-80V0c54.631,0,98.918,44.772,98.918,100H79.135z"/&gt;&lt;/svg&gt;</t>
+  </si>
+  <si>
+    <t>sitemap.xml</t>
+  </si>
+  <si>
+    <t>https://docs.google.com/spreadsheets/d/e/2PACX-1vQwd7CTU3k1HsrT4fPLljY9HSW5eWbOv118H3zn5nsRg6Uc1b_aTg577hjFoHLPCUbKAEmht603qmc7/pubhtml?gid=2116581279&amp;single=true&amp;widget=false&amp;chrome=false&amp;headers=false</t>
+  </si>
+  <si>
+    <t>action="https://script.google.com/macros/s/AKfycbzgwZUKFmuNQin6Kq4-kTMBSZtz9TapE6kxpZyk7p2tRaanLD1w/exec"</t>
+  </si>
+  <si>
+    <t>enterHallOfFame</t>
+  </si>
+  <si>
+    <t>Hall of Fame</t>
+  </si>
+  <si>
+    <t>https://script.google.com/macros/s/AKfycbx3VJTScX-y6L3I4KMql10hVBx_MpjoDfocNHzhR9nuRAQkedFi/exec</t>
+  </si>
+  <si>
+    <t>OverwriteData("«HALL-OF-FAME-DISPLAY-URL»","hall-of-fame-table",d=&gt;MakeInvertedTable(JSON.parse(d)))</t>
+  </si>
+  <si>
+    <t>images/patreon-button.png</t>
+  </si>
+  <si>
+    <t>https://www.patreon.com/PedroPSI</t>
+  </si>
+  <si>
+    <t>https://discord.gg/RxUMt9V</t>
+  </si>
+  <si>
+    <t>https://discord.gg</t>
+  </si>
+  <si>
+    <t>https://script.google.com/macros/s/AKfycbzJnrnkaamwSWZbNKhgNxX4bNRx53A14LpaRQcGWQ/exec</t>
+  </si>
+  <si>
+    <t>https://docs.google.com/spreadsheets/d/e/2PACX-1vQwd7CTU3k1HsrT4fPLljY9HSW5eWbOv118H3zn5nsRg6Uc1b_aTg577hjFoHLPCUbKAEmht603qmc7/pubhtml?gid=2036979410&amp;single=true&amp;widget=false&amp;chrome=false&amp;headers=false</t>
+  </si>
+  <si>
+    <t>https://script.google.com/macros/s/AKfycbzbI9ht52-sWmNcVi4SpQvjhyTtEdSJxTPpfqwuSDTPlQfJJfc/exec</t>
+  </si>
+  <si>
+    <t>OverwriteData("«GUESTBOOK-DISPLAY-URL»","guestbook-area",d=&gt;MakeGuestbook(JSON.parse(d)))</t>
+  </si>
+  <si>
+    <t>&lt;script data-cfasync="false" type="text/javascript"  src="codes/analytics.js"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>&lt;script data-cfasync="false" type="text/javascript"  src="codes/communication.js"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>«ARCHIVE-SECTION:SubUnique{"Year"}»</t>
+  </si>
+  <si>
+    <t>«ARCHIVE-CLASS:Filter{"Type"-&gt;"Tag","Tags"-&gt;_}»</t>
+  </si>
+  <si>
+    <t>&lt;h3&gt;&lt;a href="«LINK:Load».html"&gt;«Post:Load»&lt;/a&gt;&lt;/h3&gt;</t>
+  </si>
+  <si>
+    <t>«TAGSELECT:Filter{"Type"-&gt;"Post","Tags"-&gt;_?(StringMatchQ[#,___~~"«TAGS:Load»"~~___]&amp;)}»</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="«CONTACT_FORM_SRC»" width="100%" height="500px" frameborder="0" marginheight="0" marginwidth="0"&gt;Loading...&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>&lt;script type="text/javascript" src="codes/loader.js"&gt; LoadText("posts/«LINK:LOAD».txt"); &lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="«LINK:Load».html" class="nav-link" style="max-width: 728px;"&gt;«TITLE:Load»&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="index.html"&gt;&lt;div class="logo"&gt;&lt;/div&gt;&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>PICTURE</t>
+  </si>
+  <si>
+    <t>RAINBOWLINE</t>
+  </si>
+  <si>
+    <t>&lt;div class="rainbowline"&gt;&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>FOOTER-AREA</t>
+  </si>
+  <si>
+    <t>&lt;div class="footer"&gt;«FOOTER-LINES»&lt;/div&gt;«BEACON-ANALYTICS»«BEACON-COM»</t>
+  </si>
+  <si>
+    <t>&lt;div class="figure"&gt;«PICTURE»&lt;div class="legend"&gt;«CONTENT:Load»&lt;/div&gt;&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>&lt;script type="text/javascript"&gt;PuzzleScript.embed(document.getElementById('«PUZZLE-MARK»'),"«CONTENT:Load»");&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>puzzlescript-game</t>
+  </si>
+  <si>
+    <t>&lt;link href="codes/game/puzzlescript-mobile.css" rel="stylesheet" type="text/css"&gt;&lt;script src="codes/game/puzzlescript-embed.js" type="text/javascript"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>&lt;div class="button centered" onclick="RequestGuestbook()"&gt;Leave your message!&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href='contact.html'&gt;contact «NAME»&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href='contact.html'&gt;get in touch&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href='contact.html'&gt;let «ME» know&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href='contact.html'&gt;«I»'d love to hear from you!&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href='contact.html'&gt;welcome&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href='contact.html'&gt;Drop «ME» a line!&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>Copyright «NAME» «YEAR-START»-«YEAR-NOW», all rights reserved.</t>
+  </si>
+  <si>
+    <t>© «NAME» «YEAR-START»-«YEAR-NOW».</t>
+  </si>
+  <si>
+    <t>&lt;a «BLANK» href='https://creativecommons.org/licenses/by-nc-sa/4.0/'&gt;CC BY-NC-SA 4.0&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>target='_blank'</t>
+  </si>
+  <si>
+    <t>NAVIGATION-TEXT</t>
+  </si>
+  <si>
+    <t>&lt;h3&gt;Level navigation&lt;/h3&gt;&lt;p&gt;Navigate to a previously uncovered level by pressing the &lt;b&gt;lateral buttons&lt;/b&gt; beside the game screen. These buttons appear and disappear as needed.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>TOUCHSCREEN-TEXT</t>
+  </si>
+  <si>
+    <t>&lt;h3&gt;Controls - touchscreen&lt;/h3&gt;&lt;p&gt;&lt;b&gt;Tap&lt;/b&gt; to simulate &lt;em&gt;pressing X&lt;/em&gt; and &lt;b&gt;swipe&lt;/b&gt; to simulate an &lt;em&gt;arrow keypress&lt;/em&gt;.&lt;/p&gt;&lt;p&gt;Open the tab on the left beside the game to: «CONTROLS:Load» &lt;em&gt;restart&lt;/em&gt; and &lt;em&gt;return to menu&lt;/em&gt;.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;«UNDO-TEXT» «RESTART-TEXT»&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>Press &lt;b&gt;R&lt;/b&gt; to restart the level.</t>
+  </si>
+  <si>
+    <t>Press &lt;b&gt;Z&lt;/b&gt; to undo a move.</t>
+  </si>
+  <si>
+    <t>&lt;h3&gt;Real-time feedback&lt;/h3&gt;&lt;p&gt;Press &lt;b&gt;F&lt;/b&gt; anytime to provide real-time feedback! Much appreciated!&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>AVATAR-TEXT</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Control your &lt;em&gt;avatar&lt;/em&gt; with the &lt;b&gt;arrow keys&lt;/b&gt;.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>CREDITS</t>
+  </si>
+  <si>
+    <t>&lt;h2&gt;Credits&lt;/h2&gt;&lt;p&gt;&lt;a href="«SITE»/«LINK:Load».html"&gt;«TITLE:Load»&lt;/a&gt; by &lt;a href="«SITE»"&gt;«NAME»&lt;/a&gt;, «YEAR:Load».&lt;/p&gt;«CREDITS-MUSIC»«CREDITS-ENGINE-SUPPORT»</t>
+  </si>
+  <si>
+    <t>&lt;h3&gt;Music&lt;/h3&gt;&lt;p&gt;&lt;b&gt;&lt;em&gt;«MUSIC-TITLE:Load»&lt;/em&gt;&lt;/b&gt; by &lt;a href='«MUSIC-LINK:Load»' id='music-author' «BLANK»&gt;&lt;b&gt;«MUSIC-AUTHOR:Load»&lt;/b&gt;&lt;/a&gt;.</t>
+  </si>
+  <si>
+    <t>&lt;h3&gt;Game Engine&lt;/h3&gt;«PUZZLESCRIPT-TEXT»«SOURCE-TEXT»«PATREON-GAME»</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Made with &lt;a «BLANK» href='http://puzzlescript.net'&gt;Puzzlescript&lt;/a&gt;. &lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>SOURCE-TEXT</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Inspect the &lt;a «BLANK» href='http://puzzlescript.net/editor.html?hack=«CONTENT:Load»'&gt;&lt;b&gt;source&lt;/b&gt;&lt;/a&gt; freely, but consider &lt;a «BLANK» href='«DONATE-LINK»'&gt;&lt;b&gt;supporting the «SITE-NAME»&lt;/b&gt;&lt;/a&gt;!&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>2018-02-08-support-the-archive.html</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;«COPYRIGHT-TEXT»  &lt;a href='terms-of-use.html'&gt;Terms of Use&lt;/a&gt;  &lt;a href='privacy-policy.html'&gt;Privacy Policy&lt;/a&gt;&lt;/p&gt;&lt;p&gt;«NIGHTMODE»  «RSS-SUBSCRIBE»&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href='hall-of-fame.html'&gt;&lt;b&gt;Hall of Fame&lt;/b&gt;&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;h2&gt;Hall of fame&lt;/h2&gt;&lt;p&gt;Once you beat «TITLE:Load», you'll be invited to enter the «HOF»! As soon as you pass the final credits screen after winning, you'll be able to type your name in a new window. &lt;em&gt;Press Submit&lt;/em&gt; to be &lt;b&gt;remembered forever&lt;/b&gt; or &lt;em&gt;close the window&lt;/em&gt; to &lt;b&gt;forsake your glory&lt;/b&gt;.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>«HALL-OF-FAME-TEXT-SHORT» &lt;p&gt;Record-keeping started March 26th 2018, so if you've beaten this game before this date you'll have to beat it again to enter the «HOF»&lt;/p&gt;.</t>
+  </si>
+  <si>
+    <t>&lt;a href='«PATREON-URL»' «BLANK»&gt;Support «TITLE:Load» on &lt;b&gt;Patreon&lt;/b&gt;!&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href='«PATREON-URL»' «BLANK»&gt;&lt;img src='«PATREON-IMG-URL»' alt='Sponsor the «SITE-NAME»'&gt;&lt;/img&gt;&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>PATREON-BECOME-SPONSOR</t>
+  </si>
+  <si>
+    <t>&lt;div class='patreon-b'&gt;«PATREON-BUTTON»&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>«PATREON-BECOME-SPONSOR»</t>
+  </si>
+  <si>
+    <t>&lt;h3&gt;Forums&lt;/h3&gt;&lt;p&gt;Comment and discuss «Title:Load» on the dedicated &lt;a href='«DISCORD-PREFIX»/«FORUMS:Load»' «BLANK»&gt;&lt;b&gt;discord channel!&lt;/b&gt;&lt;/a&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>COMMUNITY</t>
+  </si>
+  <si>
+    <t>&lt;h2&gt;Community&lt;/h2&gt;«GUESTBOOK-MESSAGE»«DISCORD-CHANNEL»</t>
+  </si>
+  <si>
+    <t>&lt;a href='«RSS-PATH»'&gt;&lt;b&gt;stay tuned!&lt;/b&gt;&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Enjoyed «TITLE:Load»? Add &lt;b&gt;your message&lt;/b&gt; below to the «SITE-NAME»'s &lt;a href="guestbook.html"&gt;guestbook&lt;/a&gt;!&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>«TOUCHSCREEN-TEXT»«FEEDBACK-TEXT»«HALL-OF-FAME-TEXT-SHORT»«COMMUNITY»</t>
+  </si>
+  <si>
+    <t>&lt;div id="GameBW" class="gameNav" onclick="GoToLevelPrev()"&gt;Previous level&lt;/div&gt;&lt;div id="GameFW" class="gameNav" onclick="GoToLevelNext()"&gt;Next level&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>&lt;script type="text/javascript" src="codes/game/honours-tiaradventur.js"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>«PUZZLE-LOAD»«HONOURS:LOAD»</t>
+  </si>
+  <si>
+    <t>GUESTBOOK-MESSAGE</t>
+  </si>
+  <si>
+    <t>&lt;h3&gt;Guestbook&lt;/h3&gt;«GUESTBOOK-POST-TEXT»«GUESTBOOK-ADD»</t>
+  </si>
+  <si>
+    <t>&lt;img src="images/«IMAGE:Load»" alt="«IMAGEALT:Load»" title="«IMAGEALT:Load»"/&gt;</t>
+  </si>
+  <si>
+    <t>FIGURE-SIMPLE</t>
+  </si>
+  <si>
+    <t>&lt;div class="figure"&gt;«PICTURE»&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>«TOUCHSCREEN-TEXT»«FEEDBACK-TEXT»«NAVIGATION-TEXT»«HALL-OF-FAME-TEXT-SHORT»«COMMUNITY»</t>
+  </si>
+  <si>
+    <t>&lt;h2&gt;About «TITLE:Load»&lt;/h2&gt;</t>
+  </si>
+  <si>
+    <t>«FIGURE-SIMPLE»&lt;h2&gt;How to play&lt;/h2&gt;&lt;h3&gt;Controls - keyboard&lt;/h3&gt;</t>
+  </si>
+  <si>
+    <t>&lt;span id="NightMode" onclick='toggleNightMode()'&gt; Darken&lt;/span&gt;</t>
+  </si>
+  <si>
+    <t>https://github.com/pedropsi</t>
+  </si>
   <si>
     <t>Link</t>
   </si>
   <si>
-    <t>Content</t>
-  </si>
-  <si>
     <t>YEAR-NOW</t>
   </si>
   <si>
     <t>LOCATION</t>
   </si>
   <si>
-    <t>a secret location</t>
-  </si>
-  <si>
     <t>NAME</t>
   </si>
   <si>
-    <t>Pedro PSI</t>
-  </si>
-  <si>
     <t>MOSAIC-TEXT</t>
   </si>
   <si>
-    <t>Clicking on the mosaic above will change this page's background. Try it!</t>
-  </si>
-  <si>
     <t>YEAR-START</t>
   </si>
   <si>
     <t>ME</t>
   </si>
   <si>
-    <t>me</t>
-  </si>
-  <si>
     <t>MY</t>
   </si>
   <si>
-    <t>my</t>
-  </si>
-  <si>
-    <t>I</t>
-  </si>
-  <si>
-    <t>I'm</t>
-  </si>
-  <si>
     <t>SITE-NAME</t>
   </si>
   <si>
-    <t>Creative Archive</t>
-  </si>
-  <si>
     <t>SITE</t>
   </si>
   <si>
-    <t>https://pedropsi.github.io</t>
-  </si>
-  <si>
     <t>SITE-HTTP</t>
   </si>
   <si>
-    <t>http://pedropsi.github.io</t>
-  </si>
-  <si>
     <t>SOURCE-URL</t>
   </si>
   <si>
-    <t>https://github.com/pedropsi/pedropsi.github.io</t>
-  </si>
-  <si>
     <t>LOGOPATH</t>
   </si>
   <si>
-    <t>images/logo.png</t>
-  </si>
-  <si>
     <t>CSS-NAME</t>
   </si>
   <si>
-    <t>&lt;a href="«CSSPATH»"&gt;"Octaflower Theme" by «NAME»&lt;/a&gt;</t>
-  </si>
-  <si>
     <t>CSSPATH</t>
   </si>
   <si>
-    <t>codes/index.css</t>
-  </si>
-  <si>
     <t>APPLEICON</t>
   </si>
   <si>
-    <t>images/splash.png</t>
-  </si>
-  <si>
     <t>FAVICON32</t>
   </si>
   <si>
-    <t>images/favicon-32x32.png</t>
-  </si>
-  <si>
     <t>PLACEHOLDER-IMAGE</t>
   </si>
   <si>
-    <t>splash.png</t>
-  </si>
-  <si>
     <t>BLANK</t>
   </si>
   <si>
-    <t>target="_blank"</t>
+    <t>HTML-PREFIX</t>
+  </si>
+  <si>
+    <t>&lt;html prefix="og: http://ogp.me/ns#"&gt;</t>
   </si>
   <si>
     <t>CONTACT_FORM_SRC</t>
   </si>
   <si>
-    <t>https://docs.google.com/forms/d/e/1FAIpQLSc7pMuScBJIJesW4LMXdegzH2nJh5tbnwR8PmqZvyMhNrUl8A/viewform?embedded=true</t>
-  </si>
-  <si>
     <t>RATINGS-URL-VIEW</t>
   </si>
   <si>
-    <t>https://docs.google.com/spreadsheets/d/1hySpQzOdDriPZIx7wG9XQzj_L-cvUmlPYS2odywqhUI/edit#gid=0</t>
-  </si>
-  <si>
     <t>RATING-FORM-URL</t>
   </si>
   <si>
-    <t>action="https://script.google.com/macros/s/AKfycbwuyyGb7XP7H91GH_8tZrXh6y_fjbZg4vSxl6S8xvAAEdyoIHcS/exec"</t>
-  </si>
-  <si>
     <t>RSS-SITE-DESCRIPTION</t>
   </si>
   <si>
-    <t>Don't miss out on novelties from The «SITE-NAME»!</t>
-  </si>
-  <si>
     <t>RSS-LIMIT</t>
   </si>
   <si>
     <t>RSS-PATH</t>
   </si>
   <si>
-    <t>rss.xml</t>
-  </si>
-  <si>
     <t>RSS-URL</t>
   </si>
   <si>
-    <t>«SITE»/«RSS-PATH»</t>
-  </si>
-  <si>
     <t>RSS-SVG</t>
   </si>
   <si>
-    <t>&lt;svg viewBox="0 0 98.918 100" xml:space="preserve"&gt;&lt;ellipse cx="13.566" cy="86.286" rx="13.566" ry="13.714"/&gt;&lt;path d="M65.569,100H46.35c0-25.879-20.752-46.858-46.35-46.858l0,0V33.715C36.214,33.715,65.569,63.391,65.569,100z"/&gt;&lt;path d="M79.135,100c0-44.183-35.429-80-79.135-80V0c54.631,0,98.918,44.772,98.918,100H79.135z"/&gt;&lt;/svg&gt;</t>
-  </si>
-  <si>
     <t>LATEST-LIMIT</t>
   </si>
   <si>
     <t>SITEMAP-PATH</t>
   </si>
   <si>
-    <t>sitemap.xml</t>
-  </si>
-  <si>
     <t>HALL-OF-FAME-VIEW-LEGACY</t>
   </si>
   <si>
-    <t>https://docs.google.com/spreadsheets/d/e/2PACX-1vQwd7CTU3k1HsrT4fPLljY9HSW5eWbOv118H3zn5nsRg6Uc1b_aTg577hjFoHLPCUbKAEmht603qmc7/pubhtml?gid=2116581279&amp;single=true&amp;widget=false&amp;chrome=false&amp;headers=false</t>
-  </si>
-  <si>
     <t>HALL-OF-FAME-URL</t>
   </si>
   <si>
-    <t>action="https://script.google.com/macros/s/AKfycbzgwZUKFmuNQin6Kq4-kTMBSZtz9TapE6kxpZyk7p2tRaanLD1w/exec"</t>
-  </si>
-  <si>
     <t>HALL-OF-FAME-DORM-ID</t>
   </si>
   <si>
-    <t>enterHallOfFame</t>
-  </si>
-  <si>
     <t>HALL-OF-FAME-SHEET</t>
   </si>
   <si>
-    <t>Hall of Fame</t>
-  </si>
-  <si>
     <t>HALL-OF-FAME-DISPLAY-URL</t>
   </si>
   <si>
-    <t>https://script.google.com/macros/s/AKfycbx3VJTScX-y6L3I4KMql10hVBx_MpjoDfocNHzhR9nuRAQkedFi/exec</t>
-  </si>
-  <si>
     <t>HALL-OF-FAME-DISPLAY</t>
   </si>
   <si>
-    <t>OverwriteData("«HALL-OF-FAME-DISPLAY-URL»","hall-of-fame-table",d=&gt;MakeInvertedTable(JSON.parse(d)))</t>
-  </si>
-  <si>
     <t>PATREON-IMG-URL</t>
   </si>
   <si>
-    <t>images/patreon-button.png</t>
-  </si>
-  <si>
     <t>PATREON-URL</t>
   </si>
   <si>
-    <t>https://www.patreon.com/PedroPSI</t>
-  </si>
-  <si>
     <t>DISCORD-MAIN</t>
   </si>
   <si>
-    <t>https://discord.gg/RxUMt9V</t>
-  </si>
-  <si>
     <t>DISCORD-PREFIX</t>
   </si>
   <si>
-    <t>https://discord.gg</t>
-  </si>
-  <si>
     <t>CONTACT-FORM-CUSTOM</t>
   </si>
   <si>
-    <t>https://script.google.com/macros/s/AKfycbzJnrnkaamwSWZbNKhgNxX4bNRx53A14LpaRQcGWQ/exec</t>
-  </si>
-  <si>
     <t>GUESTBOOK-VIEW-LEGACY</t>
   </si>
   <si>
-    <t>https://docs.google.com/spreadsheets/d/e/2PACX-1vQwd7CTU3k1HsrT4fPLljY9HSW5eWbOv118H3zn5nsRg6Uc1b_aTg577hjFoHLPCUbKAEmht603qmc7/pubhtml?gid=2036979410&amp;single=true&amp;widget=false&amp;chrome=false&amp;headers=false</t>
-  </si>
-  <si>
     <t>GUESTBOOK-DISPLAY-URL</t>
   </si>
   <si>
-    <t>https://script.google.com/macros/s/AKfycbzbI9ht52-sWmNcVi4SpQvjhyTtEdSJxTPpfqwuSDTPlQfJJfc/exec</t>
-  </si>
-  <si>
     <t>GUESTBOOK-DISPLAY</t>
   </si>
   <si>
-    <t>OverwriteData("«GUESTBOOK-DISPLAY-URL»","guestbook-area",d=&gt;MakeGuestbook(JSON.parse(d)))</t>
-  </si>
-  <si>
     <t>BEACON-ANALYTICS</t>
   </si>
   <si>
-    <t>&lt;script data-cfasync="false" type="text/javascript"  src="codes/analytics.js"&gt;&lt;/script&gt;</t>
-  </si>
-  <si>
     <t>BEACON-COM</t>
   </si>
   <si>
-    <t>&lt;script data-cfasync="false" type="text/javascript"  src="codes/communication.js"&gt;&lt;/script&gt;</t>
-  </si>
-  <si>
     <t>ARCHIVE-OF-POST-BY-DATE</t>
   </si>
   <si>
-    <t>«ARCHIVE-SECTION:SubUnique{"Year"}»</t>
-  </si>
-  <si>
     <t>ARCHIVE-OF-CLASS</t>
   </si>
   <si>
-    <t>«ARCHIVE-CLASS:Filter{"Type"-&gt;"Tag","Tags"-&gt;_}»</t>
-  </si>
-  <si>
     <t>ARCHIVE-CLASS</t>
   </si>
   <si>
-    <t>&lt;h3&gt;&lt;a href="«LINK:Load».html"&gt;«Post:Load»&lt;/a&gt;&lt;/h3&gt;</t>
-  </si>
-  <si>
     <t>ARCHIVE-TAG</t>
   </si>
   <si>
-    <t>«TAGSELECT:Filter{"Type"-&gt;"Post","Tags"-&gt;_?(StringMatchQ[#,___~~"«TAGS:Load»"~~___]&amp;)}»</t>
-  </si>
-  <si>
     <t>CONTACTAREA</t>
   </si>
   <si>
-    <t>&lt;iframe src="«CONTACT_FORM_SRC»" width="100%" height="500px" frameborder="0" marginheight="0" marginwidth="0"&gt;Loading...&lt;/iframe&gt;</t>
-  </si>
-  <si>
     <t>MARKDOWN</t>
   </si>
   <si>
-    <t>&lt;script type="text/javascript" src="codes/loader.js"&gt; LoadText("posts/«LINK:LOAD».txt"); &lt;/script&gt;</t>
-  </si>
-  <si>
     <t>NAV-LINK</t>
   </si>
   <si>
-    <t>&lt;a href="«LINK:Load».html" class="nav-link" style="max-width: 728px;"&gt;«TITLE:Load»&lt;/a&gt;</t>
-  </si>
-  <si>
     <t>NAV-LOGO</t>
   </si>
   <si>
-    <t>&lt;a href="index.html"&gt;&lt;div class="logo"&gt;&lt;/div&gt;&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>PICTURE</t>
-  </si>
-  <si>
-    <t>RAINBOWLINE</t>
-  </si>
-  <si>
-    <t>&lt;div class="rainbowline"&gt;&lt;/div&gt;</t>
-  </si>
-  <si>
-    <t>FOOTER-AREA</t>
-  </si>
-  <si>
-    <t>&lt;div class="footer"&gt;«FOOTER-LINES»&lt;/div&gt;«BEACON-ANALYTICS»«BEACON-COM»</t>
-  </si>
-  <si>
     <t>FIGURE</t>
   </si>
   <si>
-    <t>&lt;div class="figure"&gt;«PICTURE»&lt;div class="legend"&gt;«CONTENT:Load»&lt;/div&gt;&lt;/div&gt;</t>
+    <t>HONOURS-TIARADVENTUR</t>
   </si>
   <si>
     <t>PUZZLE-SCRIPT</t>
@@ -360,84 +546,42 @@
     <t>PUZZLE-LOAD</t>
   </si>
   <si>
-    <t>&lt;script type="text/javascript"&gt;PuzzleScript.embed(document.getElementById('«PUZZLE-MARK»'),"«CONTENT:Load»");&lt;/script&gt;</t>
-  </si>
-  <si>
     <t>PUZZLE-MARK</t>
   </si>
   <si>
-    <t>puzzlescript-game</t>
-  </si>
-  <si>
     <t>PUZZLE-SCRIPT-PRE</t>
   </si>
   <si>
-    <t>&lt;link href="codes/game/puzzlescript-mobile.css" rel="stylesheet" type="text/css"&gt;&lt;script src="codes/game/puzzlescript-embed.js" type="text/javascript"&gt;&lt;/script&gt;</t>
-  </si>
-  <si>
     <t>GUESTBOOK-ADD</t>
   </si>
   <si>
-    <t>&lt;div class="button centered" onclick="RequestGuestbook()"&gt;Leave your message!&lt;/div&gt;</t>
-  </si>
-  <si>
     <t>CONTACT-TEXT-1</t>
   </si>
   <si>
-    <t>&lt;a href='contact.html'&gt;contact «NAME»&lt;/a&gt;</t>
-  </si>
-  <si>
     <t>CONTACT-TEXT-2</t>
   </si>
   <si>
-    <t>&lt;a href='contact.html'&gt;get in touch&lt;/a&gt;</t>
-  </si>
-  <si>
     <t>CONTACT-TEXT-3</t>
   </si>
   <si>
-    <t>&lt;a href='contact.html'&gt;let «ME» know&lt;/a&gt;</t>
-  </si>
-  <si>
     <t>CONTACT-TEXT-4</t>
   </si>
   <si>
-    <t>&lt;a href='contact.html'&gt;«I»'d love to hear from you!&lt;/a&gt;</t>
-  </si>
-  <si>
     <t>CONTACT-TEXT-5</t>
   </si>
   <si>
-    <t>&lt;a href='contact.html'&gt;welcome&lt;/a&gt;</t>
-  </si>
-  <si>
     <t>CONTACT-TEXT-6</t>
   </si>
   <si>
-    <t>&lt;a href='contact.html'&gt;Drop «ME» a line!&lt;/a&gt;</t>
-  </si>
-  <si>
     <t>COPYRIGHT</t>
   </si>
   <si>
-    <t>Copyright «NAME» «YEAR-START»-«YEAR-NOW», all rights reserved.</t>
-  </si>
-  <si>
     <t>COPYRIGHT-TEXT</t>
   </si>
   <si>
-    <t>© «NAME» «YEAR-START»-«YEAR-NOW».</t>
-  </si>
-  <si>
     <t>LICENSE</t>
   </si>
   <si>
-    <t>&lt;a «BLANK» href='https://creativecommons.org/licenses/by-nc-sa/4.0/'&gt;CC BY-NC-SA 4.0&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>target='_blank'</t>
-  </si>
-  <si>
     <t>ABOUT-TEXT</t>
   </si>
   <si>
@@ -447,218 +591,80 @@
     <t>GAME-EXTRAS-TEXT</t>
   </si>
   <si>
-    <t>NAVIGATION-TEXT</t>
-  </si>
-  <si>
-    <t>&lt;h3&gt;Level navigation&lt;/h3&gt;&lt;p&gt;Navigate to a previously uncovered level by pressing the &lt;b&gt;lateral buttons&lt;/b&gt; beside the game screen. These buttons appear and disappear as needed.&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>TOUCHSCREEN-TEXT</t>
-  </si>
-  <si>
-    <t>&lt;h3&gt;Controls - touchscreen&lt;/h3&gt;&lt;p&gt;&lt;b&gt;Tap&lt;/b&gt; to simulate &lt;em&gt;pressing X&lt;/em&gt; and &lt;b&gt;swipe&lt;/b&gt; to simulate an &lt;em&gt;arrow keypress&lt;/em&gt;.&lt;/p&gt;&lt;p&gt;Open the tab on the left beside the game to: «CONTROLS:Load» &lt;em&gt;restart&lt;/em&gt; and &lt;em&gt;return to menu&lt;/em&gt;.&lt;/p&gt;</t>
+    <t>GAME-EXTRAS-NONAV-TEXT</t>
+  </si>
+  <si>
+    <t>GAME-NAVIGATION</t>
   </si>
   <si>
     <t>UNDO-TOUCH-TEXT</t>
   </si>
   <si>
-    <t xml:space="preserve">&lt;em&gt;undo&lt;/em&gt;, </t>
-  </si>
-  <si>
     <t>UNDO-RESTART-TEXT</t>
   </si>
   <si>
-    <t>&lt;p&gt;«UNDO-TEXT» «RESTART-TEXT»&lt;/p&gt;</t>
-  </si>
-  <si>
     <t>RESTART-TEXT</t>
   </si>
   <si>
-    <t>Press &lt;b&gt;R&lt;/b&gt; to restart the level.</t>
-  </si>
-  <si>
     <t>UNDO-TEXT</t>
   </si>
   <si>
-    <t>Press &lt;b&gt;Z&lt;/b&gt; to undo a move.</t>
-  </si>
-  <si>
     <t>FEEDBACK-TEXT</t>
   </si>
   <si>
-    <t>&lt;h3&gt;Real-time feedback&lt;/h3&gt;&lt;p&gt;Press &lt;b&gt;F&lt;/b&gt; anytime to provide real-time feedback! Much appreciated!&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>AVATAR-TEXT</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Control your &lt;em&gt;avatar&lt;/em&gt; with the &lt;b&gt;arrow keys&lt;/b&gt;.&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>CREDITS</t>
-  </si>
-  <si>
-    <t>&lt;h2&gt;Credits&lt;/h2&gt;&lt;p&gt;&lt;a href="«SITE»/«LINK:Load».html"&gt;«TITLE:Load»&lt;/a&gt; by &lt;a href="«SITE»"&gt;«NAME»&lt;/a&gt;, «YEAR:Load».&lt;/p&gt;«CREDITS-MUSIC»«CREDITS-ENGINE-SUPPORT»</t>
-  </si>
-  <si>
     <t>CREDITS-MUSIC</t>
   </si>
   <si>
-    <t>&lt;h3&gt;Music&lt;/h3&gt;&lt;p&gt;&lt;b&gt;&lt;em&gt;«MUSIC-TITLE:Load»&lt;/em&gt;&lt;/b&gt; by &lt;a href='«MUSIC-LINK:Load»' id='music-author' «BLANK»&gt;&lt;b&gt;«MUSIC-AUTHOR:Load»&lt;/b&gt;&lt;/a&gt;.</t>
-  </si>
-  <si>
     <t>CREDITS-ENGINE-SUPPORT</t>
   </si>
   <si>
-    <t>&lt;h3&gt;Game Engine&lt;/h3&gt;«PUZZLESCRIPT-TEXT»«SOURCE-TEXT»«PATREON-GAME»</t>
-  </si>
-  <si>
     <t>PUZZLESCRIPT-TEXT</t>
   </si>
   <si>
-    <t>&lt;p&gt;Made with &lt;a «BLANK» href='http://puzzlescript.net'&gt;Puzzlescript&lt;/a&gt;. &lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>SOURCE-TEXT</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Inspect the &lt;a «BLANK» href='http://puzzlescript.net/editor.html?hack=«CONTENT:Load»'&gt;&lt;b&gt;source&lt;/b&gt;&lt;/a&gt; freely, but consider &lt;a «BLANK» href='«DONATE-LINK»'&gt;&lt;b&gt;supporting the «SITE-NAME»&lt;/b&gt;&lt;/a&gt;!&lt;/p&gt;</t>
-  </si>
-  <si>
     <t>DONATE-LINK</t>
   </si>
   <si>
-    <t>2018-02-08-support-the-archive.html</t>
-  </si>
-  <si>
     <t>FOOTER-LINES</t>
   </si>
   <si>
-    <t>&lt;p&gt;«COPYRIGHT-TEXT»  &lt;a href='terms-of-use.html'&gt;Terms of Use&lt;/a&gt;  &lt;a href='privacy-policy.html'&gt;Privacy Policy&lt;/a&gt;&lt;/p&gt;&lt;p&gt;«NIGHTMODE»  «RSS-SUBSCRIBE»&lt;/p&gt;</t>
-  </si>
-  <si>
     <t>NIGHTMODE</t>
   </si>
   <si>
     <t>HOF</t>
   </si>
   <si>
-    <t>&lt;a href='hall-of-fame.html'&gt;&lt;b&gt;Hall of Fame&lt;/b&gt;&lt;/a&gt;</t>
-  </si>
-  <si>
     <t>HALL-OF-FAME-TEXT-SHORT</t>
   </si>
   <si>
-    <t>&lt;h2&gt;Hall of fame&lt;/h2&gt;&lt;p&gt;Once you beat «TITLE:Load», you'll be invited to enter the «HOF»! As soon as you pass the final credits screen after winning, you'll be able to type your name in a new window. &lt;em&gt;Press Submit&lt;/em&gt; to be &lt;b&gt;remembered forever&lt;/b&gt; or &lt;em&gt;close the window&lt;/em&gt; to &lt;b&gt;forsake your glory&lt;/b&gt;.&lt;/p&gt;</t>
-  </si>
-  <si>
     <t>HALL-OF-FAME-TEXT</t>
   </si>
   <si>
-    <t>«HALL-OF-FAME-TEXT-SHORT» &lt;p&gt;Record-keeping started March 26th 2018, so if you've beaten this game before this date you'll have to beat it again to enter the «HOF»&lt;/p&gt;.</t>
-  </si>
-  <si>
     <t>PATREON-TEXT</t>
   </si>
   <si>
-    <t>&lt;a href='«PATREON-URL»' «BLANK»&gt;Support «TITLE:Load» on &lt;b&gt;Patreon&lt;/b&gt;!&lt;/a&gt;</t>
-  </si>
-  <si>
     <t>PATREON-BUTTON</t>
   </si>
   <si>
-    <t>&lt;a href='«PATREON-URL»' «BLANK»&gt;&lt;img src='«PATREON-IMG-URL»' alt='Sponsor the «SITE-NAME»'&gt;&lt;/img&gt;&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>PATREON-BECOME-SPONSOR</t>
-  </si>
-  <si>
-    <t>&lt;div class='patreon-b'&gt;«PATREON-BUTTON»&lt;/div&gt;</t>
-  </si>
-  <si>
     <t>PATREON-GAME</t>
   </si>
   <si>
-    <t>«PATREON-BECOME-SPONSOR»</t>
-  </si>
-  <si>
     <t>DISCORD-CHANNEL</t>
   </si>
   <si>
-    <t>&lt;h3&gt;Forums&lt;/h3&gt;&lt;p&gt;Comment and discuss «Title:Load» on the dedicated &lt;a href='«DISCORD-PREFIX»/«FORUMS:Load»' «BLANK»&gt;&lt;b&gt;discord channel!&lt;/b&gt;&lt;/a&gt;&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>COMMUNITY</t>
-  </si>
-  <si>
-    <t>&lt;h2&gt;Community&lt;/h2&gt;«GUESTBOOK-MESSAGE»«DISCORD-CHANNEL»</t>
-  </si>
-  <si>
     <t>STAY-TUNED</t>
   </si>
   <si>
-    <t>&lt;a href='«RSS-PATH»'&gt;&lt;b&gt;stay tuned!&lt;/b&gt;&lt;/a&gt;</t>
-  </si>
-  <si>
     <t>GUESTBOOK-POST-TEXT</t>
   </si>
   <si>
-    <t>&lt;p&gt;Enjoyed «TITLE:Load»? Add &lt;b&gt;your message&lt;/b&gt; below to the «SITE-NAME»'s &lt;a href="guestbook.html"&gt;guestbook&lt;/a&gt;!&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>GAME-EXTRAS-NONAV-TEXT</t>
-  </si>
-  <si>
-    <t>«TOUCHSCREEN-TEXT»«FEEDBACK-TEXT»«HALL-OF-FAME-TEXT-SHORT»«COMMUNITY»</t>
-  </si>
-  <si>
-    <t>GAME-NAVIGATION</t>
-  </si>
-  <si>
-    <t>&lt;div id="GameBW" class="gameNav" onclick="GoToLevelPrev()"&gt;Previous level&lt;/div&gt;&lt;div id="GameFW" class="gameNav" onclick="GoToLevelNext()"&gt;Next level&lt;/div&gt;</t>
-  </si>
-  <si>
-    <t>HONOURS-TIARADVENTUR</t>
-  </si>
-  <si>
-    <t>&lt;script type="text/javascript" src="codes/game/honours-tiaradventur.js"&gt;&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>«PUZZLE-LOAD»«HONOURS:LOAD»</t>
-  </si>
-  <si>
-    <t>GUESTBOOK-MESSAGE</t>
-  </si>
-  <si>
-    <t>&lt;h3&gt;Guestbook&lt;/h3&gt;«GUESTBOOK-POST-TEXT»«GUESTBOOK-ADD»</t>
-  </si>
-  <si>
-    <t>&lt;img src="images/«IMAGE:Load»" alt="«IMAGEALT:Load»" title="«IMAGEALT:Load»"/&gt;</t>
-  </si>
-  <si>
-    <t>FIGURE-SIMPLE</t>
-  </si>
-  <si>
-    <t>&lt;div class="figure"&gt;«PICTURE»&lt;/div&gt;</t>
-  </si>
-  <si>
-    <t>«TOUCHSCREEN-TEXT»«FEEDBACK-TEXT»«NAVIGATION-TEXT»«HALL-OF-FAME-TEXT-SHORT»«COMMUNITY»</t>
-  </si>
-  <si>
-    <t>&lt;h2&gt;About «TITLE:Load»&lt;/h2&gt;</t>
-  </si>
-  <si>
-    <t>«FIGURE-SIMPLE»&lt;h2&gt;How to play&lt;/h2&gt;&lt;h3&gt;Controls - keyboard&lt;/h3&gt;</t>
-  </si>
-  <si>
-    <t>&lt;span id="NightMode" onclick='toggleNightMode()'&gt; Darken&lt;/span&gt;</t>
+    <t>&lt;em&gt;undo&lt;/em&gt;,</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -789,6 +795,21 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13.5"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1135,8 +1156,15 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1193,6 +1221,183 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>120650</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1037" name="AutoShape 13" descr="«IMAGEALT:Load»"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="1104900"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>120650</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1042" name="AutoShape 18" descr="Sponsor the «SITE-NAME»">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="18364200"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>120650</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1045" name="AutoShape 21" descr="«IMAGEALT:Load»"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="1104900"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>120650</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1050" name="AutoShape 26" descr="Sponsor the «SITE-NAME»">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="18364200"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1457,896 +1662,919 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B110"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B117"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B110"/>
+    <sheetView tabSelected="1" topLeftCell="A92" workbookViewId="0">
+      <selection activeCell="B111" sqref="B111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+      <c r="A1" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="B2" s="3">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B2">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" t="s">
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="B6" s="3">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="B8" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B4" t="s">
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A9" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
+      <c r="B9" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A10" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B10" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A11" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="B11" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A12" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="B12" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B6">
-        <v>2010</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A13" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="B13" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B7" t="s">
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A14" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A15" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B15" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A16" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="B16" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B8" t="s">
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A17" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="B17" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A18" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="B18" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A19" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="B19" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B10" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A20" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="B20" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B11" t="s">
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A21" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="B21" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A22" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A23" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="B23" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B12" t="s">
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A24" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="B24" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A25" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="B25" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B13" t="s">
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A26" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="B26" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A27" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="B27" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A28" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="B28" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B14" t="s">
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A29" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="B29" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A30" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="B30" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B15" t="s">
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A31" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="B31" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A32" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="B32" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A33" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="B33" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B16" t="s">
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A34" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="B34" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A35" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="B35" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B17" t="s">
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A36" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="B36" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A37" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="B37" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B18" t="s">
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A38" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="B38" s="3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A39" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="B39" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B19" t="s">
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A40" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="B40" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A41" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="B41" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B20" t="s">
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A42" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="B42" s="3" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A43" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="B43" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B21" t="s">
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A44" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="B44" s="3" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A45" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="B45" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B22" t="s">
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A46" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="B46" s="3" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A47" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="B47" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B23" t="s">
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A48" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="B48" s="3" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A49" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="B49" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B24" t="s">
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A50" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="B50" s="3" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A51" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="B51" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B25" t="s">
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A52" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="B52" s="3" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A26" t="s">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A53" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="B53" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B26">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A27" t="s">
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A54" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="B54" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="B27" t="s">
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A55" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="B55" s="3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A28" t="s">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A56" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="B56" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="B28" t="s">
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A57" s="3" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A29" t="s">
+      <c r="B57" s="3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A58" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B58" s="3" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A30" t="s">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A59" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="B30">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A31" t="s">
+      <c r="B59" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="B31" t="s">
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A60" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A61" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="B61" s="3" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A32" t="s">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A62" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A63" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A64" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A65" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="B65" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="B32" t="s">
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A66" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="B66" s="3" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A33" t="s">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A67" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="B67" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="B33" t="s">
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A68" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="B68" s="3" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A34" t="s">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A69" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="B69" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="B34" t="s">
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A70" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="B70" s="3" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A35" t="s">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A71" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="B71" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="B35" t="s">
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A72" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="B72" s="3" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A36" t="s">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A73" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="B73" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="B36" t="s">
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A74" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="B74" s="3" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A37" t="s">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A75" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="B75" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="B37" t="s">
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A76" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="B76" s="3" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A38" t="s">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A77" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="B77" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="B38" t="s">
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A78" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="B78" s="3" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A39" t="s">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A79" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="B79" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A80" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="B80" s="3" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A81" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="B81" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A82" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="B82" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A83" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="B83" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A84" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B84" s="3" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A40" t="s">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A85" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B85" s="3" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A41" t="s">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A86" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="B86" s="3" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A87" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="B87" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="B41" t="s">
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A88" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="B88" s="3" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A42" t="s">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A89" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="B89" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="B42" t="s">
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A90" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="B90" s="3" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A43" t="s">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A91" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B91" s="3" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A44" t="s">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A92" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B92" s="3" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A45" t="s">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A93" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="B93" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="B45" t="s">
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A94" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="B94" s="3" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A46" t="s">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A95" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="B95" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="B46" t="s">
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A96" s="3" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A47" t="s">
+      <c r="B96" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="B47" t="s">
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A97" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="B97" s="3" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A48" t="s">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A98" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="B98" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="B48" t="s">
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A99" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="B99" s="3" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A100" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="B100" s="3" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A49" t="s">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A101" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="B101" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="B49" t="s">
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A102" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="B102" s="3" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A50" t="s">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A103" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="B103" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="B50" t="s">
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A104" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="B104" s="3" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A51" t="s">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A105" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B105" s="3" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A52" t="s">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A106" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="B106" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="B52" t="s">
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A107" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="B107" s="3" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A53" t="s">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A108" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B108" s="3" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A54" t="s">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A109" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="B109" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="B54" t="s">
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A110" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="B110" s="3" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A55" t="s">
-        <v>102</v>
-      </c>
-      <c r="B55" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A56" t="s">
-        <v>104</v>
-      </c>
-      <c r="B56" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A57" t="s">
-        <v>105</v>
-      </c>
-      <c r="B57" t="s">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A111" s="3" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A58" t="s">
+      <c r="B111" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="B58" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A59" t="s">
-        <v>98</v>
-      </c>
-      <c r="B59" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A60" t="s">
-        <v>109</v>
-      </c>
-      <c r="B60" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A61" t="s">
-        <v>205</v>
-      </c>
-      <c r="B61" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A62" t="s">
-        <v>199</v>
-      </c>
-      <c r="B62" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A63" t="s">
-        <v>111</v>
-      </c>
-      <c r="B63" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A64" t="s">
-        <v>112</v>
-      </c>
-      <c r="B64" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A65" t="s">
-        <v>114</v>
-      </c>
-      <c r="B65" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A66" t="s">
-        <v>116</v>
-      </c>
-      <c r="B66" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A67" t="s">
-        <v>118</v>
-      </c>
-      <c r="B67" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A68" t="s">
-        <v>120</v>
-      </c>
-      <c r="B68" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A69" t="s">
-        <v>122</v>
-      </c>
-      <c r="B69" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A70" t="s">
-        <v>124</v>
-      </c>
-      <c r="B70" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A71" t="s">
-        <v>126</v>
-      </c>
-      <c r="B71" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A72" t="s">
-        <v>128</v>
-      </c>
-      <c r="B72" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A73" t="s">
-        <v>130</v>
-      </c>
-      <c r="B73" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A74" t="s">
-        <v>132</v>
-      </c>
-      <c r="B74" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A75" t="s">
-        <v>134</v>
-      </c>
-      <c r="B75" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A76" t="s">
-        <v>136</v>
-      </c>
-      <c r="B76" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A77" t="s">
-        <v>36</v>
-      </c>
-      <c r="B77" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A78" t="s">
-        <v>139</v>
-      </c>
-      <c r="B78" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A79" t="s">
-        <v>140</v>
-      </c>
-      <c r="B79" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A80" t="s">
-        <v>141</v>
-      </c>
-      <c r="B80" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A81" t="s">
-        <v>195</v>
-      </c>
-      <c r="B81" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A82" t="s">
-        <v>197</v>
-      </c>
-      <c r="B82" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A83" t="s">
-        <v>142</v>
-      </c>
-      <c r="B83" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A84" t="s">
-        <v>144</v>
-      </c>
-      <c r="B84" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A85" t="s">
-        <v>146</v>
-      </c>
-      <c r="B85" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A86" t="s">
-        <v>148</v>
-      </c>
-      <c r="B86" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A87" t="s">
-        <v>150</v>
-      </c>
-      <c r="B87" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A88" t="s">
-        <v>152</v>
-      </c>
-      <c r="B88" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A89" t="s">
-        <v>154</v>
-      </c>
-      <c r="B89" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A90" t="s">
-        <v>156</v>
-      </c>
-      <c r="B90" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A91" t="s">
-        <v>158</v>
-      </c>
-      <c r="B91" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A92" t="s">
-        <v>160</v>
-      </c>
-      <c r="B92" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A93" t="s">
-        <v>162</v>
-      </c>
-      <c r="B93" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A94" t="s">
-        <v>164</v>
-      </c>
-      <c r="B94" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A95" t="s">
-        <v>166</v>
-      </c>
-      <c r="B95" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A96" t="s">
-        <v>168</v>
-      </c>
-      <c r="B96" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A97" t="s">
-        <v>170</v>
-      </c>
-      <c r="B97" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A98" t="s">
-        <v>172</v>
-      </c>
-      <c r="B98" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A99" t="s">
-        <v>173</v>
-      </c>
-      <c r="B99" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A100" t="s">
-        <v>175</v>
-      </c>
-      <c r="B100" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A101" t="s">
-        <v>177</v>
-      </c>
-      <c r="B101" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A102" t="s">
-        <v>179</v>
-      </c>
-      <c r="B102" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A103" t="s">
-        <v>181</v>
-      </c>
-      <c r="B103" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A104" t="s">
-        <v>183</v>
-      </c>
-      <c r="B104" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A105" t="s">
-        <v>185</v>
-      </c>
-      <c r="B105" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A106" t="s">
-        <v>187</v>
-      </c>
-      <c r="B106" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A107" t="s">
-        <v>189</v>
-      </c>
-      <c r="B107" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A108" t="s">
-        <v>191</v>
-      </c>
-      <c r="B108" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A109" t="s">
-        <v>193</v>
-      </c>
-      <c r="B109" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A110" t="s">
-        <v>202</v>
-      </c>
-      <c r="B110" t="s">
-        <v>203</v>
-      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A113" s="1"/>
+    </row>
+    <row r="115" spans="1:1" ht="17.5" x14ac:dyDescent="0.35">
+      <c r="A115" s="2"/>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A116" s="1"/>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A117" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
--- a/cms/Variables.xlsx
+++ b/cms/Variables.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="215">
   <si>
     <t>Content</t>
   </si>
@@ -658,6 +658,12 @@
   </si>
   <si>
     <t>&lt;em&gt;undo&lt;/em&gt;,</t>
+  </si>
+  <si>
+    <t>TITLE-BOLD</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;«TITLE:Load»&lt;/b&gt;</t>
   </si>
 </sst>
 </file>
@@ -1665,8 +1671,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A92" workbookViewId="0">
-      <selection activeCell="B111" sqref="B111"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:B112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1884,7 +1890,7 @@
         <v>141</v>
       </c>
       <c r="B27" s="3">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.35">
@@ -1916,7 +1922,7 @@
         <v>145</v>
       </c>
       <c r="B31" s="3">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.35">
@@ -1929,633 +1935,641 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" s="3" t="s">
-        <v>147</v>
+        <v>213</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>26</v>
+        <v>214</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A39" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A41" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A42" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A43" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A44" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A45" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A46" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A47" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A48" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A49" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A50" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A51" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A52" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A53" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A54" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A55" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A56" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A57" s="3" t="s">
-        <v>50</v>
+        <v>170</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>108</v>
+        <v>49</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A58" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>52</v>
+        <v>108</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A59" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A60" s="3" t="s">
-        <v>168</v>
+        <v>53</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A61" s="3" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A62" s="3" t="s">
-        <v>109</v>
+        <v>171</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>110</v>
+        <v>55</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A63" s="3" t="s">
-        <v>172</v>
+        <v>109</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A64" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A65" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>56</v>
+        <v>105</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A66" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A67" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A68" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A69" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A70" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A71" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A72" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A73" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A74" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A75" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A76" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A77" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A78" s="3" t="s">
-        <v>134</v>
+        <v>186</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A79" s="3" t="s">
-        <v>187</v>
+        <v>134</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>112</v>
+        <v>69</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A80" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A81" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A82" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A83" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A84" s="3" t="s">
-        <v>70</v>
+        <v>191</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>71</v>
+        <v>103</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A85" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A86" s="3" t="s">
-        <v>192</v>
+        <v>72</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>212</v>
+        <v>73</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A87" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>74</v>
+        <v>212</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A88" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A89" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A90" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A91" s="3" t="s">
-        <v>78</v>
+        <v>196</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A92" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A93" s="3" t="s">
-        <v>197</v>
+        <v>80</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A94" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A95" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A96" s="3" t="s">
-        <v>85</v>
+        <v>199</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A97" s="3" t="s">
-        <v>200</v>
+        <v>85</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A98" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A99" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>114</v>
+        <v>88</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A100" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>89</v>
+        <v>114</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A101" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A102" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A103" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A104" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A105" s="3" t="s">
-        <v>94</v>
+        <v>207</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A106" s="3" t="s">
-        <v>208</v>
+        <v>94</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A107" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A108" s="3" t="s">
-        <v>98</v>
+        <v>209</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A109" s="3" t="s">
-        <v>210</v>
+        <v>98</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A110" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A111" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="B111" s="3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A112" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="B111" s="3" t="s">
+      <c r="B112" s="3" t="s">
         <v>107</v>
       </c>
     </row>

--- a/cms/Variables.xlsx
+++ b/cms/Variables.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="337">
   <si>
     <t>Content</t>
   </si>
@@ -81,9 +81,6 @@
     <t>https://docs.google.com/spreadsheets/d/1hySpQzOdDriPZIx7wG9XQzj_L-cvUmlPYS2odywqhUI/edit#gid=0</t>
   </si>
   <si>
-    <t>action="https://script.google.com/macros/s/AKfycbwuyyGb7XP7H91GH_8tZrXh6y_fjbZg4vSxl6S8xvAAEdyoIHcS/exec"</t>
-  </si>
-  <si>
     <t>Don't miss out on novelties from The «SITE-NAME»!</t>
   </si>
   <si>
@@ -153,9 +150,6 @@
     <t>«ARCHIVE-CLASS:Filter{"Type"-&gt;"Tag","Tags"-&gt;_}»</t>
   </si>
   <si>
-    <t>&lt;h3&gt;&lt;a href="«LINK:Load».html"&gt;«Post:Load»&lt;/a&gt;&lt;/h3&gt;</t>
-  </si>
-  <si>
     <t>«TAGSELECT:Filter{"Type"-&gt;"Post","Tags"-&gt;_?(StringMatchQ[#,___~~"«TAGS:Load»"~~___]&amp;)}»</t>
   </si>
   <si>
@@ -234,9 +228,6 @@
     <t>NAVIGATION-TEXT</t>
   </si>
   <si>
-    <t>&lt;h3&gt;Level navigation&lt;/h3&gt;&lt;p&gt;Navigate to a previously uncovered level by pressing the &lt;b&gt;lateral buttons&lt;/b&gt; beside the game screen. These buttons appear and disappear as needed.&lt;/p&gt;</t>
-  </si>
-  <si>
     <t>TOUCHSCREEN-TEXT</t>
   </si>
   <si>
@@ -264,18 +255,12 @@
     <t>CREDITS</t>
   </si>
   <si>
-    <t>&lt;h2&gt;Credits&lt;/h2&gt;&lt;p&gt;&lt;a href="«SITE»/«LINK:Load».html"&gt;«TITLE:Load»&lt;/a&gt; by &lt;a href="«SITE»"&gt;«NAME»&lt;/a&gt;, «YEAR:Load».&lt;/p&gt;«CREDITS-MUSIC»«CREDITS-ENGINE-SUPPORT»</t>
-  </si>
-  <si>
     <t>&lt;h3&gt;Music&lt;/h3&gt;&lt;p&gt;&lt;b&gt;&lt;em&gt;«MUSIC-TITLE:Load»&lt;/em&gt;&lt;/b&gt; by &lt;a href='«MUSIC-LINK:Load»' id='music-author' «BLANK»&gt;&lt;b&gt;«MUSIC-AUTHOR:Load»&lt;/b&gt;&lt;/a&gt;.</t>
   </si>
   <si>
     <t>&lt;h3&gt;Game Engine&lt;/h3&gt;«PUZZLESCRIPT-TEXT»«SOURCE-TEXT»«PATREON-GAME»</t>
   </si>
   <si>
-    <t>&lt;p&gt;Made with &lt;a «BLANK» href='http://puzzlescript.net'&gt;Puzzlescript&lt;/a&gt;. &lt;/p&gt;</t>
-  </si>
-  <si>
     <t>SOURCE-TEXT</t>
   </si>
   <si>
@@ -285,21 +270,12 @@
     <t>2018-02-08-support-the-archive.html</t>
   </si>
   <si>
-    <t>&lt;p&gt;«COPYRIGHT-TEXT»  &lt;a href='terms-of-use.html'&gt;Terms of Use&lt;/a&gt;  &lt;a href='privacy-policy.html'&gt;Privacy Policy&lt;/a&gt;&lt;/p&gt;&lt;p&gt;«NIGHTMODE»  «RSS-SUBSCRIBE»&lt;/p&gt;</t>
-  </si>
-  <si>
     <t>&lt;a href='hall-of-fame.html'&gt;&lt;b&gt;Hall of Fame&lt;/b&gt;&lt;/a&gt;</t>
   </si>
   <si>
-    <t>&lt;h2&gt;Hall of fame&lt;/h2&gt;&lt;p&gt;Once you beat «TITLE:Load», you'll be invited to enter the «HOF»! As soon as you pass the final credits screen after winning, you'll be able to type your name in a new window. &lt;em&gt;Press Submit&lt;/em&gt; to be &lt;b&gt;remembered forever&lt;/b&gt; or &lt;em&gt;close the window&lt;/em&gt; to &lt;b&gt;forsake your glory&lt;/b&gt;.&lt;/p&gt;</t>
-  </si>
-  <si>
     <t>«HALL-OF-FAME-TEXT-SHORT» &lt;p&gt;Record-keeping started March 26th 2018, so if you've beaten this game before this date you'll have to beat it again to enter the «HOF»&lt;/p&gt;.</t>
   </si>
   <si>
-    <t>&lt;a href='«PATREON-URL»' «BLANK»&gt;Support «TITLE:Load» on &lt;b&gt;Patreon&lt;/b&gt;!&lt;/a&gt;</t>
-  </si>
-  <si>
     <t>&lt;a href='«PATREON-URL»' «BLANK»&gt;&lt;img src='«PATREON-IMG-URL»' alt='Sponsor the «SITE-NAME»'&gt;&lt;/img&gt;&lt;/a&gt;</t>
   </si>
   <si>
@@ -312,9 +288,6 @@
     <t>«PATREON-BECOME-SPONSOR»</t>
   </si>
   <si>
-    <t>&lt;h3&gt;Forums&lt;/h3&gt;&lt;p&gt;Comment and discuss «Title:Load» on the dedicated &lt;a href='«DISCORD-PREFIX»/«FORUMS:Load»' «BLANK»&gt;&lt;b&gt;discord channel!&lt;/b&gt;&lt;/a&gt;&lt;/p&gt;</t>
-  </si>
-  <si>
     <t>COMMUNITY</t>
   </si>
   <si>
@@ -324,12 +297,6 @@
     <t>&lt;a href='«RSS-PATH»'&gt;&lt;b&gt;stay tuned!&lt;/b&gt;&lt;/a&gt;</t>
   </si>
   <si>
-    <t>&lt;p&gt;Enjoyed «TITLE:Load»? Add &lt;b&gt;your message&lt;/b&gt; below to the «SITE-NAME»'s &lt;a href="guestbook.html"&gt;guestbook&lt;/a&gt;!&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>«TOUCHSCREEN-TEXT»«FEEDBACK-TEXT»«HALL-OF-FAME-TEXT-SHORT»«COMMUNITY»</t>
-  </si>
-  <si>
     <t>&lt;div id="GameBW" class="gameNav" onclick="GoToLevelPrev()"&gt;Previous level&lt;/div&gt;&lt;div id="GameFW" class="gameNav" onclick="GoToLevelNext()"&gt;Next level&lt;/div&gt;</t>
   </si>
   <si>
@@ -357,9 +324,6 @@
     <t>«TOUCHSCREEN-TEXT»«FEEDBACK-TEXT»«NAVIGATION-TEXT»«HALL-OF-FAME-TEXT-SHORT»«COMMUNITY»</t>
   </si>
   <si>
-    <t>&lt;h2&gt;About «TITLE:Load»&lt;/h2&gt;</t>
-  </si>
-  <si>
     <t>«FIGURE-SIMPLE»&lt;h2&gt;How to play&lt;/h2&gt;&lt;h3&gt;Controls - keyboard&lt;/h3&gt;</t>
   </si>
   <si>
@@ -591,9 +555,6 @@
     <t>GAME-EXTRAS-TEXT</t>
   </si>
   <si>
-    <t>GAME-EXTRAS-NONAV-TEXT</t>
-  </si>
-  <si>
     <t>GAME-NAVIGATION</t>
   </si>
   <si>
@@ -657,13 +618,418 @@
     <t>GUESTBOOK-POST-TEXT</t>
   </si>
   <si>
-    <t>&lt;em&gt;undo&lt;/em&gt;,</t>
-  </si>
-  <si>
     <t>TITLE-BOLD</t>
   </si>
   <si>
     <t>&lt;b&gt;«TITLE:Load»&lt;/b&gt;</t>
+  </si>
+  <si>
+    <t>«CONTENT:Load»</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;em&gt;undo&lt;/em&gt;, </t>
+  </si>
+  <si>
+    <t>SENDOWL-EMBED</t>
+  </si>
+  <si>
+    <t>SENDOWL-BUTTON</t>
+  </si>
+  <si>
+    <t>SENDOWL-ID</t>
+  </si>
+  <si>
+    <t>&lt;a href="https://transactions.sendowl.com/products/«SENDOWL-ID»" rel="nofollow"&gt;«SENDOWL-BUTTON»&lt;/a&gt;&lt;script type="text/javascript" src="https://transactions.sendowl.com/assets/sendowl.js" &gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>BUTTON-BUY</t>
+  </si>
+  <si>
+    <t>BUTTON-PREORDER</t>
+  </si>
+  <si>
+    <t>&lt;div class="button centered buy" &gt;Buy now!&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>&lt;div class="button centered buy" &gt;Preorder now!&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>«BUTTON-PREORDER»</t>
+  </si>
+  <si>
+    <t>&lt;h3&gt;Level navigation&lt;/h3&gt;&lt;p&gt;Navigate to «GN:Load» by pressing the &lt;b&gt;lateral buttons&lt;/b&gt; beside the game screen. These buttons appear and disappear as needed.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>NAV-LEVEL</t>
+  </si>
+  <si>
+    <t>a previously uncovered level</t>
+  </si>
+  <si>
+    <t>NAV-SAVED</t>
+  </si>
+  <si>
+    <t>the previous saved points</t>
+  </si>
+  <si>
+    <t>&lt;h2&gt;About «TITLE-BOLD»&lt;/h2&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href='«PATREON-URL»' «BLANK»&gt;Support «TITLE-BOLD» on &lt;b&gt;Patreon&lt;/b&gt;!&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;h3&gt;Forums&lt;/h3&gt;&lt;p&gt;Comment and discuss «TITLE-BOLD» on the dedicated &lt;a href='«DISCORD-PREFIX»/«FORUMS:Load»' «BLANK»&gt;&lt;b&gt;discord channel!&lt;/b&gt;&lt;/a&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Enjoyed «TITLE-BOLD»? Add &lt;b&gt;your message&lt;/b&gt; below to the «SITE-NAME»'s &lt;a href="guestbook.html"&gt;guestbook&lt;/a&gt;!&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;h2&gt;Credits&lt;/h2&gt;«CREDITS-AUTHORSHIP»«CREDITS-MUSIC»«CREDITS-ENGINE-SUPPORT»</t>
+  </si>
+  <si>
+    <t>CREDITS-AUTHORSHIP</t>
+  </si>
+  <si>
+    <t>CREDITS-ENGINE-CLOSED</t>
+  </si>
+  <si>
+    <t>&lt;h3&gt;Game Engine&lt;/h3&gt;«PUZZLESCRIPT-TEXT»</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Made with &lt;a «BLANK» href='http://puzzlescript.net'&gt;Puzzlescript&lt;/a&gt;.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>XML</t>
+  </si>
+  <si>
+    <t>&lt;?xml version="1.0" encoding="UTF-8"?&gt;</t>
+  </si>
+  <si>
+    <t>SITEMAP</t>
+  </si>
+  <si>
+    <t>«XML»&lt;urlset xmlns="http://www.sitemaps.org/schemas/sitemap/0.9"&gt;«CONTENT:Load»&lt;/urlset&gt;</t>
+  </si>
+  <si>
+    <t>SITEMAP-ITEM</t>
+  </si>
+  <si>
+    <t>HTML-PRE</t>
+  </si>
+  <si>
+    <t>&lt;!DOCTYPE html&gt;«HTML-PREFIX»«HEAD»&lt;body class="body" id="«LINK:LOAD»"&gt;&lt;div class="main"&gt;«NAVBAR»</t>
+  </si>
+  <si>
+    <t>HTML-POS</t>
+  </si>
+  <si>
+    <t>&lt;/div&gt;«FOOTER-AREA»&lt;/body&gt;&lt;/html&gt;</t>
+  </si>
+  <si>
+    <t>PAGE-SIMPLE</t>
+  </si>
+  <si>
+    <t>«HTML-PRE»«POSTAREA-SIMPLE»«HTML-POS»</t>
+  </si>
+  <si>
+    <t>PAGE-BARE</t>
+  </si>
+  <si>
+    <t>«HTML-PRE»&lt;div class="section"&gt;«CONTENT:Load»&lt;/div&gt;«HTML-POS»</t>
+  </si>
+  <si>
+    <t>PAGE-FEATURED</t>
+  </si>
+  <si>
+    <t>PAGE-FEATURED-EMPTY</t>
+  </si>
+  <si>
+    <t>PAGE-POST-MD</t>
+  </si>
+  <si>
+    <t>«HTML-PRE»«POSTAREA»«MARKDOWN»«HTML-POS»</t>
+  </si>
+  <si>
+    <t>TAGSELECT</t>
+  </si>
+  <si>
+    <t>NAVBAR</t>
+  </si>
+  <si>
+    <t>&lt;nav role="navigation"&gt;«NAV-LINK:Filter{"Nav"-&gt;_?NumberQ}»&lt;/nav&gt;«RAINBOWLINE»&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>FIGURE-MOSAIC</t>
+  </si>
+  <si>
+    <t>&lt;div class="figure" onclick="(function(){toggleBGMode('«LINK:Load»')})()"&gt;«PICTURE»&lt;div class="legend" id="markdown"&gt;«CONTENT:Load»&lt;/div&gt;&lt;p&gt;«MOSAIC-TEXT»&lt;/p&gt;&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>&lt;h2&gt;Hall of fame&lt;/h2&gt;&lt;p&gt;Once you beat «TITLE-BOLD», you'll be invited to enter the «HOF»! As soon as you pass the final credits screen after winning, you'll be able to type your name in a new window. Make sure you are connected to the internet, then &lt;em&gt;press Submit&lt;/em&gt; to be &lt;b&gt;remembered forever&lt;/b&gt; or &lt;em&gt;close the window&lt;/em&gt; to &lt;b&gt;forsake your glory&lt;/b&gt;.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>PAGE-INDEX</t>
+  </si>
+  <si>
+    <t>«HTML-PRE»«SECTION-PRE»«FEATURED»«SECTION-POS»«HTML-POS»</t>
+  </si>
+  <si>
+    <t>«HTML-PRE»«SECTION-PRE»«FEATURED»«LABELS»«SECTION-POS»«HTML-POS»</t>
+  </si>
+  <si>
+    <t>FEATURED</t>
+  </si>
+  <si>
+    <t>&lt;h1 class="textarea title"&gt;«TITLE:Load»&lt;/h1&gt;&lt;div class="featured"&gt;«CONTENT:Load»&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>FEATURED-ITEM</t>
+  </si>
+  <si>
+    <t>&lt;a href="«LINK:Load».html"&gt;&lt;div class="card"&gt;&lt;h3&gt;«TITLE:Load»&lt;/h3&gt;«PICTURE»&lt;/div&gt;&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>LABELS</t>
+  </si>
+  <si>
+    <t>&lt;div class="tags"&gt;&lt;div class="tagup"&gt;&lt;a href="«LINK:Load(Archive,1)».html"&gt;&lt;div class="tag"&gt;«DATE:Load»&lt;/div&gt;&lt;/a&gt;&lt;/div&gt;«LABEL-TAG:Multiply»&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>LABEL-TAG</t>
+  </si>
+  <si>
+    <t>&lt;a href="tag-«TAGS:Load».html"&gt;&lt;div class="tag"&gt;«TAGS:Load»&lt;/div&gt;&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>SORT-BY-DATE</t>
+  </si>
+  <si>
+    <t>Day-&gt;_,"Month"-&gt;_,"Year"-&gt;_?(StringMatchQ[ToString[#],___~~"«YEAR:Load»"~~___]&amp;)</t>
+  </si>
+  <si>
+    <t>SECTION-PRE</t>
+  </si>
+  <si>
+    <t>&lt;div class="section"&gt;&lt;div class="container"&gt;</t>
+  </si>
+  <si>
+    <t>SECTION-POS</t>
+  </si>
+  <si>
+    <t>POSTAREA-PRE</t>
+  </si>
+  <si>
+    <t>&lt;h1 class="textarea title"&gt;«TITLE:Load»&lt;/h1&gt;&lt;div class="textarea"&gt;&lt;div class="text «STYLE:Load»" id="markdown"&gt;</t>
+  </si>
+  <si>
+    <t>POSTAREA-POS</t>
+  </si>
+  <si>
+    <t>&lt;/div&gt;&lt;/div&gt;«LABELS»</t>
+  </si>
+  <si>
+    <t>POSTAREA</t>
+  </si>
+  <si>
+    <t>«SECTION-PRE»«POST-PLUS-LABELS»«SECTION-POS»</t>
+  </si>
+  <si>
+    <t>POSTAREA-PIC</t>
+  </si>
+  <si>
+    <t>«SECTION-PRE»«POSTAREA-PRE»«POST:Load»&lt;/div&gt;&lt;div&gt;«PICTURE»«POSTAREA-POS»«SECTION-POS»</t>
+  </si>
+  <si>
+    <t>POSTAREA-SIMPLE</t>
+  </si>
+  <si>
+    <t>«SECTION-PRE»«POSTAREA-PRE»«CONTENT:Load»«POSTAREA-POS»«SECTION-POS»</t>
+  </si>
+  <si>
+    <t>POST-PLUS-LABELS</t>
+  </si>
+  <si>
+    <t>«POST:Load»</t>
+  </si>
+  <si>
+    <t>&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>«STARSSHARE»&lt;/div&gt;«LABELS»</t>
+  </si>
+  <si>
+    <t>STARSSHARE</t>
+  </si>
+  <si>
+    <t>&lt;div class="starsshare"&gt;«STARS»«SHARER»&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>&lt;/div&gt;&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>&lt;div class="nav"&gt;«NAV-LOGO»&lt;nav role="navigation"&gt;«NAV-LINK:Filter{"Nav"-&gt;_?NumberQ}»&lt;/nav&gt;«RAINBOWLINE»&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>PAGE-FULLSCREEN</t>
+  </si>
+  <si>
+    <t>«HTML-PRE»«POSTAREA»«HTML-POS»</t>
+  </si>
+  <si>
+    <t>IFRAME-SETTINGS</t>
+  </si>
+  <si>
+    <t>width="100%" height="500px" frameborder="0" marginheight="0" marginwidth="0"</t>
+  </si>
+  <si>
+    <t>RSS-TAGS</t>
+  </si>
+  <si>
+    <t>&lt;category&gt;«TAGS:Load»&lt;/category&gt;</t>
+  </si>
+  <si>
+    <t>POSTAREA-SHARE-POS</t>
+  </si>
+  <si>
+    <t>&lt;/div&gt;«STARSSHARE»&lt;/div&gt;«LABELS»</t>
+  </si>
+  <si>
+    <t>«POSTAREA-PRE»«POST:Load»«POSTAREA-SHARE-POS»</t>
+  </si>
+  <si>
+    <t>ENUM-1-5</t>
+  </si>
+  <si>
+    <t>STARS-STAR</t>
+  </si>
+  <si>
+    <t>STARS-STARS</t>
+  </si>
+  <si>
+    <t>«STARS-STAR:Multiply»</t>
+  </si>
+  <si>
+    <t>action="https://script.google.com/macros/s/AKfycbwB-a8j-INbkzTiQFJ55qETLYkdZrRvSg2s8urj9bPbG0XkBg9z/exec"</t>
+  </si>
+  <si>
+    <t>ARCHIVE-SECTION</t>
+  </si>
+  <si>
+    <t>&lt;div class="textarea archive"&gt;&lt;h2 class="text"&gt;«YEAR:Load»&lt;/h2&gt;«TAGSELECT:Filter{"Type"-&gt;Except["Tag"],"Day"-&gt;_?NumberQ,"Month"-&gt;_?NumberQ,"Year"-&gt;_?((#==«YEAR:Load»)&amp;)}»&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>5,4,3,2,1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;button name="rate-«ENUM-1-5»" id="rate-«ENUM-1-5»" onclick="starry(this,'«ENUM-1-5»');" class="star-b"/&gt;&lt;/button&gt;&lt;label class="label-on" for="rate-«ENUM-1-5»"&gt;&lt;/label&gt; </t>
+  </si>
+  <si>
+    <t>LATEST</t>
+  </si>
+  <si>
+    <t>«SECTION-PRE»&lt;h1 class="textarea title"&gt;Latest posts&lt;/h1&gt;&lt;div class="latest"&gt;«LATEST-ITEM:FilterSort{"Update","«LATEST-LIMIT»"}»&lt;/div&gt;«SECTION-POS»</t>
+  </si>
+  <si>
+    <t>LATEST-ITEM</t>
+  </si>
+  <si>
+    <t>&lt;div class="mini"&gt;&lt;div&gt;«TITLE-H3-LINK»«LABELS»&lt;/div&gt;«PICTURE-LINK»&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>TITLE-H3-LINK</t>
+  </si>
+  <si>
+    <t>&lt;a href="«LINK:Load».html"&gt;&lt;h3&gt;«TITLE:Load»&lt;/h3&gt;&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>PICTURE-LINK</t>
+  </si>
+  <si>
+    <t>&lt;a href="«LINK:Load».html"&gt;«PICTURE»&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>LOG-LINK</t>
+  </si>
+  <si>
+    <t>BUTTON-COMMENT</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;&lt;a href="«LINK:Load»-log.html"&gt;«TITLE-BOLD»'s log&lt;/a&gt;&lt;/b&gt;</t>
+  </si>
+  <si>
+    <t>LOG-COMMENTS</t>
+  </si>
+  <si>
+    <t>&lt;script&gt;AddAfterElement('«BUTTON-COMMENT»',"h2")&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>&lt;div class="button button-comment" onclick="RequestComment(\'«TITLE:Load»\',this)"&gt;Comment!&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>LINK-URL</t>
+  </si>
+  <si>
+    <t>«SITE»/«LINK:Load»</t>
+  </si>
+  <si>
+    <t>&lt;url&gt;&lt;loc&gt;«LINK-URL»&lt;/loc&gt;&lt;lastmod&gt;«UP-DA-TE:Load»&lt;/lastmod&gt;&lt;changefreq&gt;«FREQ:Load»&lt;/changefreq&gt;&lt;/url&gt;</t>
+  </si>
+  <si>
+    <t>TITLE-BY</t>
+  </si>
+  <si>
+    <t>«TITLE:Load» by «NAME» «YEAR:Load»</t>
+  </si>
+  <si>
+    <t>BUTTON-SUBSCRIBE</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;a href="«LINK-URL».html"&gt;«TITLE-BOLD»&lt;/a&gt; by &lt;a href="«SITE»"&gt;«NAME»&lt;/a&gt;, «YEAR:Load».&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;«COPYRIGHT-TEXT» &lt;a href='terms-of-use.html'&gt;Terms of Use.&lt;/a&gt; &lt;a href='privacy-policy.html'&gt;Privacy Policy.&lt;/a&gt;&lt;/p&gt;&lt;p&gt;«NIGHTMODE» «SUBSCRIBE-LINK»&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>«HTML-PRE»«LATEST»«SUBSCRIBE-ANNOUNCEMENT»«SECTION-PRE»&lt;h1 class="textarea title"&gt;Highlights&lt;/h1&gt;&lt;div class="featured"&gt;«CONTENT:Load»&lt;/div&gt;«SECTION-POS»«HTML-POS»</t>
+  </si>
+  <si>
+    <t>SUBSCRIBE-ANNOUNCEMENT</t>
+  </si>
+  <si>
+    <t>SUBSCRIBE-RSS</t>
+  </si>
+  <si>
+    <t>&lt;a href="«SITE»/«RSS-PATH»" id="rss"&gt;Subscribe to RSS feed.&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>SUBSCRIBE-EMAIL</t>
+  </si>
+  <si>
+    <t>SUBSCRIBE-LINK</t>
+  </si>
+  <si>
+    <t>SUBSCRIBE-DISCORD</t>
+  </si>
+  <si>
+    <t>&lt;a href="«DISCORD-MAIN»" «BLANK»&gt;Join the community.&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="subscribe.html"&gt;Subscribe!&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a onclick="OpenModalSubscribe()"&gt;Subscribe to email alerts.&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;div class="button centered"&gt;«SUBSCRIBE-LINK»&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>&lt;div class="announce"&gt;&lt;p&gt;Learn first-hand about «NAME»'s next project!&lt;/p&gt;«BUTTON-SUBSCRIBE»&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>&lt;div class="architem"&gt;&lt;h3&gt;&lt;a href="«LINK:Load».html"&gt;«Post:Load»&lt;/a&gt;&lt;/h3&gt;&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>&lt;div class="architem"&gt;«TITLE-H3-LINK»&lt;div class="date"&gt;«DATE:Load»&lt;/div&gt;&lt;/div&gt;</t>
   </si>
 </sst>
 </file>
@@ -813,7 +1179,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="13.5"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -1165,10 +1530,10 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1669,921 +2034,1385 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B117"/>
+  <dimension ref="A1:E170"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B112"/>
+      <selection sqref="A1:B170"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B2" s="2">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B6" s="2">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A9" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A11" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A12" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A13" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A14" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A15" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A16" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2" s="3" t="s">
+      <c r="B16" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A17" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="B2" s="3">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3" s="3" t="s">
+      <c r="B17" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A18" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" s="3" t="s">
+      <c r="B18" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A19" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5" s="3" t="s">
+      <c r="B19" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A20" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A6" s="3" t="s">
+      <c r="B20" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A21" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="B6" s="3">
-        <v>2010</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A7" s="3" t="s">
+      <c r="B21" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A22" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A8" s="3" t="s">
+      <c r="B22" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A23" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A9" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A10" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A11" s="3" t="s">
+      <c r="B23" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A12" s="3" t="s">
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A24" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B24" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A25" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A26" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A27" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A28" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B28" s="2">
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A13" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A14" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A15" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A16" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="B16" s="3" t="s">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A29" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A30" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A31" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A32" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A33" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A34" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A35" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A36" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A37" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A38" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A39" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A40" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A41" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A42" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A43" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A44" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A45" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A46" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A47" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A48" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A49" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A50" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A51" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A52" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A53" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A54" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A55" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A56" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A57" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A58" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A59" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A60" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A61" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C61" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A62" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A63" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A64" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A65" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A66" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A67" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A68" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A69" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A70" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A71" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A72" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A73" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A74" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A75" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A76" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A77" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A78" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A79" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A80" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A81" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A82" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A83" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A84" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A85" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A86" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A87" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A88" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A89" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A90" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A91" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A92" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A93" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A94" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A95" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A96" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A97" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A98" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A99" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A100" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A101" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A102" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A103" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A104" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A105" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A106" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A107" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A108" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A109" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A110" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A111" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A112" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A113" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A114" t="s">
+        <v>188</v>
+      </c>
+      <c r="B114" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" ht="17.5" x14ac:dyDescent="0.35">
+      <c r="A115" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="B115" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A116" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B116" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A117" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="B117" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A118" t="s">
+        <v>192</v>
+      </c>
+      <c r="B118" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A119" t="s">
+        <v>193</v>
+      </c>
+      <c r="B119" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A120" t="s">
+        <v>194</v>
+      </c>
+      <c r="B120" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A121" t="s">
+        <v>86</v>
+      </c>
+      <c r="B121" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A122" t="s">
+        <v>195</v>
+      </c>
+      <c r="B122" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A123" t="s">
+        <v>196</v>
+      </c>
+      <c r="B123" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A124" t="s">
+        <v>89</v>
+      </c>
+      <c r="B124" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A125" t="s">
+        <v>197</v>
+      </c>
+      <c r="B125" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A126" t="s">
+        <v>198</v>
+      </c>
+      <c r="B126" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A127" t="s">
+        <v>95</v>
+      </c>
+      <c r="B127" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A128" t="s">
+        <v>203</v>
+      </c>
+      <c r="B128" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A129" t="s">
+        <v>204</v>
+      </c>
+      <c r="B129" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A130" t="s">
+        <v>205</v>
+      </c>
+      <c r="B130" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A131" t="s">
+        <v>231</v>
+      </c>
+      <c r="B131" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A132" t="s">
+        <v>233</v>
+      </c>
+      <c r="B132" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A133" t="s">
+        <v>249</v>
+      </c>
+      <c r="B133" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A134" t="s">
+        <v>235</v>
+      </c>
+      <c r="B134" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A135" t="s">
+        <v>283</v>
+      </c>
+      <c r="B135" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A136" t="s">
+        <v>237</v>
+      </c>
+      <c r="B136" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A137" t="s">
+        <v>239</v>
+      </c>
+      <c r="B137" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A138" t="s">
+        <v>240</v>
+      </c>
+      <c r="B138" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A139" t="s">
+        <v>252</v>
+      </c>
+      <c r="B139" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A140" t="s">
+        <v>254</v>
+      </c>
+      <c r="B140" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A141" t="s">
+        <v>241</v>
+      </c>
+      <c r="B141" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A142" t="s">
+        <v>256</v>
+      </c>
+      <c r="B142" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A143" t="s">
+        <v>258</v>
+      </c>
+      <c r="B143" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A144" t="s">
+        <v>260</v>
+      </c>
+      <c r="B144" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A145" t="s">
+        <v>262</v>
+      </c>
+      <c r="B145" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A146" t="s">
+        <v>264</v>
+      </c>
+      <c r="B146" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A147" t="s">
+        <v>265</v>
+      </c>
+      <c r="B147" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A148" t="s">
+        <v>267</v>
+      </c>
+      <c r="B148" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A149" t="s">
+        <v>289</v>
+      </c>
+      <c r="B149" t="s">
+        <v>290</v>
+      </c>
+      <c r="C149" t="s">
+        <v>276</v>
+      </c>
+      <c r="D149" t="s">
+        <v>277</v>
+      </c>
+      <c r="E149" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A150" t="s">
+        <v>269</v>
+      </c>
+      <c r="B150" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A151" t="s">
+        <v>271</v>
+      </c>
+      <c r="B151" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A152" t="s">
+        <v>273</v>
+      </c>
+      <c r="B152" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A153" t="s">
+        <v>275</v>
+      </c>
+      <c r="B153" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A154" t="s">
+        <v>279</v>
+      </c>
+      <c r="B154" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A155" t="s">
+        <v>285</v>
+      </c>
+      <c r="B155" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A156" t="s">
+        <v>292</v>
+      </c>
+      <c r="B156" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A157" t="s">
+        <v>293</v>
+      </c>
+      <c r="B157" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A158" t="s">
+        <v>294</v>
+      </c>
+      <c r="B158" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A159" t="s">
+        <v>133</v>
+      </c>
+      <c r="B159">
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A17" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A18" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A19" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A20" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A21" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A22" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A23" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A24" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A25" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A26" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A27" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="B27" s="3">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A28" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A29" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A30" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A31" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="B31" s="3">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A32" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A33" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A34" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A35" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A36" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A37" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A38" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A39" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A40" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A41" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A42" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A43" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="B43" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A44" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="B44" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A45" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="B45" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A46" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="B46" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A47" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="B47" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A48" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="B48" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A49" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="B49" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A50" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="B50" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A51" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="B51" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A52" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="B52" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A53" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="B53" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A54" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="B54" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A55" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="B55" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A56" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="B56" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A57" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="B57" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A58" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B58" s="3" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A59" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="B59" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A60" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="B60" s="3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A61" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="B61" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A62" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="B62" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A63" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="B63" s="3" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A64" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="B64" s="3" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A65" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="B65" s="3" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A66" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="B66" s="3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A67" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="B67" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A68" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="B68" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A69" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="B69" s="3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A70" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="B70" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A71" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="B71" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A72" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="B72" s="3" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A73" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="B73" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A74" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="B74" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A75" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="B75" s="3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A76" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="B76" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A77" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="B77" s="3" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A78" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="B78" s="3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A79" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="B79" s="3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A80" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="B80" s="3" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A81" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="B81" s="3" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A82" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="B82" s="3" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A83" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="B83" s="3" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A84" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="B84" s="3" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A85" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="B85" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A86" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="B86" s="3" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A87" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="B87" s="3" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A88" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="B88" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A89" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="B89" s="3" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A90" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="B90" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A91" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="B91" s="3" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A92" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="B92" s="3" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A93" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="B93" s="3" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A94" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="B94" s="3" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A95" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="B95" s="3" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A96" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="B96" s="3" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A97" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="B97" s="3" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A98" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="B98" s="3" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A99" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="B99" s="3" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A100" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="B100" s="3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A101" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="B101" s="3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A102" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="B102" s="3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A103" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="B103" s="3" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A104" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="B104" s="3" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A105" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="B105" s="3" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A106" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="B106" s="3" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A107" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="B107" s="3" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A108" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="B108" s="3" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A109" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="B109" s="3" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A110" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="B110" s="3" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A111" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="B111" s="3" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A112" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="B112" s="3" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A113" s="1"/>
-    </row>
-    <row r="115" spans="1:1" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="A115" s="2"/>
-    </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A116" s="1"/>
-    </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A117" s="1"/>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A160" t="s">
+        <v>301</v>
+      </c>
+      <c r="B160" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A161" t="s">
+        <v>303</v>
+      </c>
+      <c r="B161" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A162" t="s">
+        <v>305</v>
+      </c>
+      <c r="B162" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A163" t="s">
+        <v>307</v>
+      </c>
+      <c r="B163" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A164" t="s">
+        <v>309</v>
+      </c>
+      <c r="B164" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A165" t="s">
+        <v>312</v>
+      </c>
+      <c r="B165" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A166" t="s">
+        <v>324</v>
+      </c>
+      <c r="B166" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A167" t="s">
+        <v>325</v>
+      </c>
+      <c r="B167" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A168" t="s">
+        <v>327</v>
+      </c>
+      <c r="B168" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A169" t="s">
+        <v>328</v>
+      </c>
+      <c r="B169" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A170" t="s">
+        <v>329</v>
+      </c>
+      <c r="B170" t="s">
+        <v>330</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/cms/Variables.xlsx
+++ b/cms/Variables.xlsx
@@ -300,9 +300,6 @@
     <t>&lt;div id="GameBW" class="gameNav" onclick="GoToLevelPrev()"&gt;Previous level&lt;/div&gt;&lt;div id="GameFW" class="gameNav" onclick="GoToLevelNext()"&gt;Next level&lt;/div&gt;</t>
   </si>
   <si>
-    <t>&lt;script type="text/javascript" src="codes/game/honours-tiaradventur.js"&gt;&lt;/script&gt;</t>
-  </si>
-  <si>
     <t>«PUZZLE-LOAD»«HONOURS:LOAD»</t>
   </si>
   <si>
@@ -501,9 +498,6 @@
     <t>FIGURE</t>
   </si>
   <si>
-    <t>HONOURS-TIARADVENTUR</t>
-  </si>
-  <si>
     <t>PUZZLE-SCRIPT</t>
   </si>
   <si>
@@ -678,9 +672,6 @@
     <t>&lt;a href='«PATREON-URL»' «BLANK»&gt;Support «TITLE-BOLD» on &lt;b&gt;Patreon&lt;/b&gt;!&lt;/a&gt;</t>
   </si>
   <si>
-    <t>&lt;h3&gt;Forums&lt;/h3&gt;&lt;p&gt;Comment and discuss «TITLE-BOLD» on the dedicated &lt;a href='«DISCORD-PREFIX»/«FORUMS:Load»' «BLANK»&gt;&lt;b&gt;discord channel!&lt;/b&gt;&lt;/a&gt;&lt;/p&gt;</t>
-  </si>
-  <si>
     <t>&lt;p&gt;Enjoyed «TITLE-BOLD»? Add &lt;b&gt;your message&lt;/b&gt; below to the «SITE-NAME»'s &lt;a href="guestbook.html"&gt;guestbook&lt;/a&gt;!&lt;/p&gt;</t>
   </si>
   <si>
@@ -1030,6 +1021,15 @@
   </si>
   <si>
     <t>&lt;div class="architem"&gt;«TITLE-H3-LINK»&lt;div class="date"&gt;«DATE:Load»&lt;/div&gt;&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>&lt;h3&gt;Forums&lt;/h3&gt;&lt;p&gt;Comment and discuss «TITLE-BOLD» on the dedicated &lt;a href='«DISCORD-MAIN»' «BLANK»&gt;&lt;b&gt;discord channel!&lt;/b&gt;&lt;/a&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>HONOURS-HOF</t>
+  </si>
+  <si>
+    <t>&lt;script type="text/javascript" src="codes/game/honours-«TITLE:LOAD».js"&gt;&lt;/script&gt;</t>
   </si>
 </sst>
 </file>
@@ -2044,7 +2044,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -2052,7 +2052,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B2" s="2">
         <v>2018</v>
@@ -2060,7 +2060,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>1</v>
@@ -2068,7 +2068,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>2</v>
@@ -2076,7 +2076,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>3</v>
@@ -2084,7 +2084,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B6" s="2">
         <v>2010</v>
@@ -2092,7 +2092,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>4</v>
@@ -2100,7 +2100,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>5</v>
@@ -2124,7 +2124,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>8</v>
@@ -2132,7 +2132,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>9</v>
@@ -2140,7 +2140,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>10</v>
@@ -2148,23 +2148,23 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>11</v>
@@ -2172,7 +2172,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>12</v>
@@ -2180,7 +2180,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>13</v>
@@ -2188,7 +2188,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>14</v>
@@ -2196,7 +2196,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>15</v>
@@ -2204,7 +2204,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>16</v>
@@ -2212,7 +2212,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>17</v>
@@ -2220,15 +2220,15 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B23" s="2" t="s">
         <v>123</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>18</v>
@@ -2236,7 +2236,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>19</v>
@@ -2244,15 +2244,15 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>20</v>
@@ -2260,7 +2260,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B28" s="2">
         <v>9</v>
@@ -2268,7 +2268,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>21</v>
@@ -2276,7 +2276,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>22</v>
@@ -2284,7 +2284,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>23</v>
@@ -2292,39 +2292,39 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" s="2" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" s="2" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" s="2" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35" s="2" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>24</v>
@@ -2332,23 +2332,23 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37" s="2" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38" s="2" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A39" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>25</v>
@@ -2356,7 +2356,7 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>26</v>
@@ -2364,7 +2364,7 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A41" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>27</v>
@@ -2372,7 +2372,7 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A42" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>28</v>
@@ -2380,7 +2380,7 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A43" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>29</v>
@@ -2388,7 +2388,7 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A44" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>30</v>
@@ -2396,7 +2396,7 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A45" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>31</v>
@@ -2404,7 +2404,7 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A46" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>32</v>
@@ -2412,7 +2412,7 @@
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A47" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>33</v>
@@ -2420,7 +2420,7 @@
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A48" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>34</v>
@@ -2428,7 +2428,7 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A49" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>35</v>
@@ -2436,7 +2436,7 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A50" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>36</v>
@@ -2444,7 +2444,7 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A51" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>37</v>
@@ -2452,7 +2452,7 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A52" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>38</v>
@@ -2460,7 +2460,7 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A53" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>39</v>
@@ -2468,7 +2468,7 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A54" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>40</v>
@@ -2476,7 +2476,7 @@
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A55" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>41</v>
@@ -2484,7 +2484,7 @@
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A56" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>42</v>
@@ -2492,15 +2492,15 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A57" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A58" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>43</v>
@@ -2508,34 +2508,34 @@
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A59" s="2" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A60" s="2" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A61" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>44</v>
       </c>
       <c r="C61" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A62" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>45</v>
@@ -2543,15 +2543,15 @@
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A63" s="2" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A64" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>46</v>
@@ -2559,7 +2559,7 @@
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A65" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>47</v>
@@ -2586,12 +2586,12 @@
         <v>48</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A69" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>53</v>
@@ -2599,39 +2599,39 @@
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A70" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B70" s="2" t="s">
         <v>98</v>
-      </c>
-      <c r="B70" s="2" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A71" s="2" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A72" s="2" t="s">
-        <v>160</v>
+        <v>335</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>93</v>
+        <v>336</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A73" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A74" s="2" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B74" s="2" t="s">
         <v>54</v>
@@ -2639,7 +2639,7 @@
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A75" s="2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B75" s="2" t="s">
         <v>55</v>
@@ -2647,7 +2647,7 @@
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A76" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B76" s="2" t="s">
         <v>56</v>
@@ -2655,7 +2655,7 @@
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A77" s="2" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B77" s="2" t="s">
         <v>57</v>
@@ -2663,39 +2663,39 @@
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A78" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="B78" s="2" t="s">
         <v>207</v>
-      </c>
-      <c r="B78" s="2" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A79" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="B79" s="2" t="s">
         <v>208</v>
-      </c>
-      <c r="B79" s="2" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A80" s="2" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A81" s="2" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A82" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B82" s="2" t="s">
         <v>58</v>
@@ -2703,7 +2703,7 @@
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A83" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B83" s="2" t="s">
         <v>59</v>
@@ -2711,7 +2711,7 @@
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A84" s="2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B84" s="2" t="s">
         <v>60</v>
@@ -2719,7 +2719,7 @@
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A85" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B85" s="2" t="s">
         <v>61</v>
@@ -2727,7 +2727,7 @@
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A86" s="2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B86" s="2" t="s">
         <v>62</v>
@@ -2735,7 +2735,7 @@
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A87" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B87" s="2" t="s">
         <v>63</v>
@@ -2743,7 +2743,7 @@
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A88" s="2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B88" s="2" t="s">
         <v>64</v>
@@ -2751,7 +2751,7 @@
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A89" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B89" s="2" t="s">
         <v>65</v>
@@ -2759,7 +2759,7 @@
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A90" s="2" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B90" s="2" t="s">
         <v>66</v>
@@ -2767,7 +2767,7 @@
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A91" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B91" s="2" t="s">
         <v>67</v>
@@ -2775,31 +2775,31 @@
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A92" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A93" s="2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A94" s="2" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A95" s="2" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B95" s="2" t="s">
         <v>92</v>
@@ -2810,23 +2810,23 @@
         <v>68</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A97" s="2" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A98" s="2" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.35">
@@ -2839,15 +2839,15 @@
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A100" s="2" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A101" s="2" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B101" s="2" t="s">
         <v>71</v>
@@ -2855,7 +2855,7 @@
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A102" s="2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B102" s="2" t="s">
         <v>72</v>
@@ -2863,7 +2863,7 @@
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A103" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B103" s="2" t="s">
         <v>73</v>
@@ -2871,7 +2871,7 @@
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A104" s="2" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B104" s="2" t="s">
         <v>74</v>
@@ -2890,20 +2890,20 @@
         <v>77</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A107" s="2" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A108" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B108" s="2" t="s">
         <v>78</v>
@@ -2911,7 +2911,7 @@
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A109" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B109" s="2" t="s">
         <v>79</v>
@@ -2919,18 +2919,18 @@
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A110" s="2" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A111" s="2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.35">
@@ -2943,7 +2943,7 @@
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A113" s="2" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B113" s="2" t="s">
         <v>82</v>
@@ -2951,23 +2951,23 @@
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B114" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
     </row>
     <row r="115" spans="1:2" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A115" s="3" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B115" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A116" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B116" t="s">
         <v>83</v>
@@ -2975,15 +2975,15 @@
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A117" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B117" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B118" t="s">
         <v>84</v>
@@ -2991,15 +2991,15 @@
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B119" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B120" t="s">
         <v>85</v>
@@ -3015,7 +3015,7 @@
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B122" t="s">
         <v>88</v>
@@ -3023,10 +3023,10 @@
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B123" t="s">
-        <v>219</v>
+        <v>334</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.35">
@@ -3039,7 +3039,7 @@
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B125" t="s">
         <v>91</v>
@@ -3047,280 +3047,280 @@
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B126" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
+        <v>94</v>
+      </c>
+      <c r="B127" t="s">
         <v>95</v>
-      </c>
-      <c r="B127" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B128" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B129" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B130" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="B131" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="B132" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="B133" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="B134" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="B135" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="B136" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="B137" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="B138" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="B139" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="B140" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="B141" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="B142" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="B143" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="B144" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="B145" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="B146" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="B147" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="B148" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="B149" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="C149" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="D149" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="E149" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="B150" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="B151" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="B152" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="B153" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="B154" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="B155" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="B156" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="B157" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="B158" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B159">
         <v>12</v>
@@ -3328,90 +3328,90 @@
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="B160" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="B161" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="B162" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="B163" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="B164" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="B165" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="B166" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="B167" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="B168" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
+        <v>325</v>
+      </c>
+      <c r="B169" t="s">
         <v>328</v>
-      </c>
-      <c r="B169" t="s">
-        <v>331</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="B170" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
     </row>
   </sheetData>

--- a/cms/Variables.xlsx
+++ b/cms/Variables.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="337">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="339">
   <si>
     <t>Content</t>
   </si>
@@ -672,9 +672,6 @@
     <t>&lt;a href='«PATREON-URL»' «BLANK»&gt;Support «TITLE-BOLD» on &lt;b&gt;Patreon&lt;/b&gt;!&lt;/a&gt;</t>
   </si>
   <si>
-    <t>&lt;p&gt;Enjoyed «TITLE-BOLD»? Add &lt;b&gt;your message&lt;/b&gt; below to the «SITE-NAME»'s &lt;a href="guestbook.html"&gt;guestbook&lt;/a&gt;!&lt;/p&gt;</t>
-  </si>
-  <si>
     <t>&lt;h2&gt;Credits&lt;/h2&gt;«CREDITS-AUTHORSHIP»«CREDITS-MUSIC»«CREDITS-ENGINE-SUPPORT»</t>
   </si>
   <si>
@@ -1030,6 +1027,15 @@
   </si>
   <si>
     <t>&lt;script type="text/javascript" src="codes/game/honours-«TITLE:LOAD».js"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Enjoyed «TITLE-BOLD»? Add &lt;b&gt;your message&lt;/b&gt; below to the «SITE-NAME»'s «GUESTBOOK-LINK»!&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>GUESTBOOK-LINK</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;&lt;a href="guestbook.html"&gt;guestbook&lt;/a&gt;&lt;/b&gt;</t>
   </si>
 </sst>
 </file>
@@ -2034,10 +2040,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E170"/>
+  <dimension ref="A1:E171"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B170"/>
+      <selection sqref="A1:B171"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2156,10 +2162,10 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>312</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>313</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
@@ -2247,7 +2253,7 @@
         <v>126</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.35">
@@ -2292,34 +2298,34 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="B32" s="2" t="s">
         <v>284</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="B33" s="2" t="s">
         <v>223</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="B34" s="2" t="s">
         <v>225</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.35">
@@ -2340,10 +2346,10 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="B38" s="2" t="s">
         <v>315</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>316</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.35">
@@ -2495,7 +2501,7 @@
         <v>152</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.35">
@@ -2508,18 +2514,18 @@
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A59" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="B59" s="2" t="s">
         <v>294</v>
-      </c>
-      <c r="B59" s="2" t="s">
-        <v>295</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A60" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.35">
@@ -2530,7 +2536,7 @@
         <v>44</v>
       </c>
       <c r="C61" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.35">
@@ -2543,10 +2549,10 @@
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A63" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.35">
@@ -2607,18 +2613,18 @@
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A71" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="B71" s="2" t="s">
         <v>243</v>
-      </c>
-      <c r="B71" s="2" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A72" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="B72" s="2" t="s">
         <v>335</v>
-      </c>
-      <c r="B72" s="2" t="s">
-        <v>336</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.35">
@@ -2679,18 +2685,18 @@
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A80" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A81" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.35">
@@ -2890,15 +2896,15 @@
         <v>77</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A107" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.35">
@@ -2919,10 +2925,10 @@
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A110" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="B110" s="2" t="s">
         <v>220</v>
-      </c>
-      <c r="B110" s="2" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.35">
@@ -2930,7 +2936,7 @@
         <v>184</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.35">
@@ -2954,7 +2960,7 @@
         <v>186</v>
       </c>
       <c r="B114" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="115" spans="1:2" ht="17.5" x14ac:dyDescent="0.35">
@@ -2978,7 +2984,7 @@
         <v>189</v>
       </c>
       <c r="B117" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.35">
@@ -3026,7 +3032,7 @@
         <v>194</v>
       </c>
       <c r="B123" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.35">
@@ -3050,357 +3056,357 @@
         <v>196</v>
       </c>
       <c r="B126" t="s">
-        <v>217</v>
+        <v>336</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
-        <v>94</v>
+        <v>337</v>
       </c>
       <c r="B127" t="s">
-        <v>95</v>
+        <v>338</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
-        <v>201</v>
+        <v>94</v>
       </c>
       <c r="B128" t="s">
-        <v>204</v>
+        <v>95</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B129" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B130" t="s">
-        <v>199</v>
+        <v>209</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
-        <v>228</v>
+        <v>203</v>
       </c>
       <c r="B131" t="s">
-        <v>229</v>
+        <v>199</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="B132" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
-        <v>246</v>
+        <v>229</v>
       </c>
       <c r="B133" t="s">
-        <v>320</v>
+        <v>230</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
-        <v>232</v>
+        <v>245</v>
       </c>
       <c r="B134" t="s">
-        <v>233</v>
+        <v>319</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
-        <v>280</v>
+        <v>231</v>
       </c>
       <c r="B135" t="s">
-        <v>281</v>
+        <v>232</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
-        <v>234</v>
+        <v>279</v>
       </c>
       <c r="B136" t="s">
-        <v>235</v>
+        <v>280</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B137" t="s">
-        <v>247</v>
+        <v>234</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B138" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
-        <v>249</v>
+        <v>236</v>
       </c>
       <c r="B139" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="B140" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
-        <v>238</v>
+        <v>250</v>
       </c>
       <c r="B141" t="s">
-        <v>239</v>
+        <v>251</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
-        <v>253</v>
+        <v>237</v>
       </c>
       <c r="B142" t="s">
-        <v>254</v>
+        <v>238</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="B143" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="B144" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="B145" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="B146" t="s">
-        <v>278</v>
+        <v>259</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B147" t="s">
-        <v>263</v>
+        <v>277</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="B148" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
-        <v>286</v>
+        <v>263</v>
       </c>
       <c r="B149" t="s">
-        <v>287</v>
+        <v>264</v>
       </c>
       <c r="C149" t="s">
+        <v>272</v>
+      </c>
+      <c r="D149" t="s">
         <v>273</v>
       </c>
-      <c r="D149" t="s">
+      <c r="E149" t="s">
         <v>274</v>
-      </c>
-      <c r="E149" t="s">
-        <v>275</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
-        <v>266</v>
+        <v>285</v>
       </c>
       <c r="B150" t="s">
-        <v>267</v>
+        <v>286</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="B151" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="B152" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="B153" t="s">
-        <v>288</v>
+        <v>270</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="B154" t="s">
-        <v>277</v>
+        <v>287</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="B155" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="B156" t="s">
-        <v>296</v>
+        <v>282</v>
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B157" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="B158" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
-        <v>132</v>
-      </c>
-      <c r="B159">
-        <v>12</v>
+        <v>290</v>
+      </c>
+      <c r="B159" t="s">
+        <v>291</v>
       </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
-        <v>298</v>
-      </c>
-      <c r="B160" t="s">
-        <v>299</v>
+        <v>132</v>
+      </c>
+      <c r="B160">
+        <v>12</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="B161" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="B162" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="B163" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="B164" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="B165" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
-        <v>321</v>
+        <v>308</v>
       </c>
       <c r="B166" t="s">
-        <v>331</v>
+        <v>309</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B167" t="s">
-        <v>323</v>
+        <v>330</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="B168" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="B169" t="s">
         <v>328</v>
@@ -3408,10 +3414,18 @@
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B170" t="s">
         <v>327</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A171" t="s">
+        <v>325</v>
+      </c>
+      <c r="B171" t="s">
+        <v>326</v>
       </c>
     </row>
   </sheetData>

--- a/cms/Variables.xlsx
+++ b/cms/Variables.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="339">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="341">
   <si>
     <t>Content</t>
   </si>
@@ -1036,6 +1036,12 @@
   </si>
   <si>
     <t>&lt;b&gt;&lt;a href="guestbook.html"&gt;guestbook&lt;/a&gt;&lt;/b&gt;</t>
+  </si>
+  <si>
+    <t>P-LESLO</t>
+  </si>
+  <si>
+    <t>&lt;a href="https://twitter.com/leslodev" «BLANK»&gt;&lt;b&gt;Lucas LeSlo&lt;/b&gt;&lt;/a&gt;</t>
   </si>
 </sst>
 </file>
@@ -2040,10 +2046,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E171"/>
+  <dimension ref="A1:E172"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B171"/>
+      <selection sqref="A1:B172"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3428,6 +3434,14 @@
         <v>326</v>
       </c>
     </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A172" t="s">
+        <v>339</v>
+      </c>
+      <c r="B172" t="s">
+        <v>340</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/cms/Variables.xlsx
+++ b/cms/Variables.xlsx
@@ -651,21 +651,12 @@
     <t>«BUTTON-PREORDER»</t>
   </si>
   <si>
-    <t>&lt;h3&gt;Level navigation&lt;/h3&gt;&lt;p&gt;Navigate to «GN:Load» by pressing the &lt;b&gt;lateral buttons&lt;/b&gt; beside the game screen. These buttons appear and disappear as needed.&lt;/p&gt;</t>
-  </si>
-  <si>
     <t>NAV-LEVEL</t>
   </si>
   <si>
-    <t>a previously uncovered level</t>
-  </si>
-  <si>
     <t>NAV-SAVED</t>
   </si>
   <si>
-    <t>the previous saved points</t>
-  </si>
-  <si>
     <t>&lt;h2&gt;About «TITLE-BOLD»&lt;/h2&gt;</t>
   </si>
   <si>
@@ -966,9 +957,6 @@
     <t>TITLE-BY</t>
   </si>
   <si>
-    <t>«TITLE:Load» by «NAME» «YEAR:Load»</t>
-  </si>
-  <si>
     <t>BUTTON-SUBSCRIBE</t>
   </si>
   <si>
@@ -1042,6 +1030,18 @@
   </si>
   <si>
     <t>&lt;a href="https://twitter.com/leslodev" «BLANK»&gt;&lt;b&gt;Lucas LeSlo&lt;/b&gt;&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>«TITLE-BOLD» by «NAME» «YEAR:Load»</t>
+  </si>
+  <si>
+    <t>&lt;h3&gt;Level navigation&lt;/h3&gt;&lt;p&gt;The &lt;b&gt;lateral buttons&lt;/b&gt; beside the game screen (which appear and disappear as needed) let you navigate «GN:Load»&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">between the current and previously solved levels. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> to a previous checkpoint, or return to the most recent one. Please be aware that saving after going to a past checkpoint will erase your most recent checkpoint saves. </t>
   </si>
 </sst>
 </file>
@@ -2067,7 +2067,7 @@
         <v>104</v>
       </c>
       <c r="B2" s="2">
-        <v>2018</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
@@ -2168,10 +2168,10 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
@@ -2259,7 +2259,7 @@
         <v>126</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.35">
@@ -2304,34 +2304,34 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" s="2" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" s="2" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" s="2" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35" s="2" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.35">
@@ -2352,10 +2352,10 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38" s="2" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>315</v>
+        <v>337</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.35">
@@ -2507,7 +2507,7 @@
         <v>152</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.35">
@@ -2520,18 +2520,18 @@
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A59" s="2" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A60" s="2" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.35">
@@ -2542,7 +2542,7 @@
         <v>44</v>
       </c>
       <c r="C61" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.35">
@@ -2555,10 +2555,10 @@
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A63" s="2" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.35">
@@ -2619,18 +2619,18 @@
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A71" s="2" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A72" s="2" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.35">
@@ -2691,18 +2691,18 @@
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A80" s="2" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A81" s="2" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.35">
@@ -2790,7 +2790,7 @@
         <v>173</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.35">
@@ -2822,23 +2822,23 @@
         <v>68</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>210</v>
+        <v>338</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A97" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>212</v>
+        <v>339</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A98" s="2" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>214</v>
+        <v>340</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.35">
@@ -2902,15 +2902,15 @@
         <v>77</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A107" s="2" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.35">
@@ -2931,10 +2931,10 @@
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A110" s="2" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.35">
@@ -2942,7 +2942,7 @@
         <v>184</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.35">
@@ -2966,7 +2966,7 @@
         <v>186</v>
       </c>
       <c r="B114" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
     </row>
     <row r="115" spans="1:2" ht="17.5" x14ac:dyDescent="0.35">
@@ -2990,7 +2990,7 @@
         <v>189</v>
       </c>
       <c r="B117" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.35">
@@ -3006,7 +3006,7 @@
         <v>191</v>
       </c>
       <c r="B119" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.35">
@@ -3038,7 +3038,7 @@
         <v>194</v>
       </c>
       <c r="B123" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.35">
@@ -3062,15 +3062,15 @@
         <v>196</v>
       </c>
       <c r="B126" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="B127" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.35">
@@ -3107,235 +3107,235 @@
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="B132" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="B133" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="B134" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="B135" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="B136" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="B137" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="B138" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B139" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="B140" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="B141" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="B142" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="B143" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="B144" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="B145" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="B146" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="B147" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="B148" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="B149" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="C149" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="D149" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="E149" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="B150" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="B151" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="B152" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="B153" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="B154" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="B155" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="B156" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="B157" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="B158" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="B159" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.35">
@@ -3348,98 +3348,98 @@
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="B161" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="B162" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="B163" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="B164" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="B165" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="B166" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="B167" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="B168" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="B169" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="B170" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="B171" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="B172" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
     </row>
   </sheetData>

--- a/cms/Variables.xlsx
+++ b/cms/Variables.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="341">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="347">
   <si>
     <t>Content</t>
   </si>
@@ -1029,9 +1029,6 @@
     <t>P-LESLO</t>
   </si>
   <si>
-    <t>&lt;a href="https://twitter.com/leslodev" «BLANK»&gt;&lt;b&gt;Lucas LeSlo&lt;/b&gt;&lt;/a&gt;</t>
-  </si>
-  <si>
     <t>«TITLE-BOLD» by «NAME» «YEAR:Load»</t>
   </si>
   <si>
@@ -1042,6 +1039,27 @@
   </si>
   <si>
     <t xml:space="preserve"> to a previous checkpoint, or return to the most recent one. Please be aware that saving after going to a past checkpoint will erase your most recent checkpoint saves. </t>
+  </si>
+  <si>
+    <t>&lt;a href="https://twitter.com/leslodev" «BLANK»&gt;Lucas LeSlo&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>P-LAVELLE</t>
+  </si>
+  <si>
+    <t>&lt;a href="https://twitter.com/increpare"&gt;Stephen Lavelle&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>P-PUZZLESCRIPT</t>
+  </si>
+  <si>
+    <t>&lt;a href="https://groups.google.com/forum/#!forum/puzzlescript" «BLANK»&gt;Puzzlescript forum&lt;/a&gt; community members</t>
+  </si>
+  <si>
+    <t>P-HAZELDEN</t>
+  </si>
+  <si>
+    <t>&lt;a href="https://twitter.com/draknek" «BLANK»&gt;Alan Hazelden&lt;/a&gt;</t>
   </si>
 </sst>
 </file>
@@ -2046,10 +2064,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E172"/>
+  <dimension ref="A1:E175"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B172"/>
+    <sheetView tabSelected="1" topLeftCell="A157" workbookViewId="0">
+      <selection activeCell="A175" sqref="A175"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2355,7 +2373,7 @@
         <v>311</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.35">
@@ -2822,7 +2840,7 @@
         <v>68</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.35">
@@ -2830,7 +2848,7 @@
         <v>210</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.35">
@@ -2838,7 +2856,7 @@
         <v>211</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.35">
@@ -3439,7 +3457,31 @@
         <v>335</v>
       </c>
       <c r="B172" t="s">
-        <v>336</v>
+        <v>340</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A173" t="s">
+        <v>345</v>
+      </c>
+      <c r="B173" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A174" t="s">
+        <v>341</v>
+      </c>
+      <c r="B174" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A175" t="s">
+        <v>343</v>
+      </c>
+      <c r="B175" t="s">
+        <v>344</v>
       </c>
     </row>
   </sheetData>

--- a/cms/Variables.xlsx
+++ b/cms/Variables.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="347">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="375">
   <si>
     <t>Content</t>
   </si>
@@ -1047,9 +1047,6 @@
     <t>P-LAVELLE</t>
   </si>
   <si>
-    <t>&lt;a href="https://twitter.com/increpare"&gt;Stephen Lavelle&lt;/a&gt;</t>
-  </si>
-  <si>
     <t>P-PUZZLESCRIPT</t>
   </si>
   <si>
@@ -1060,6 +1057,93 @@
   </si>
   <si>
     <t>&lt;a href="https://twitter.com/draknek" «BLANK»&gt;Alan Hazelden&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="https://twitter.com/increpare" «BLANK»&gt;Stephen Lavelle&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>P-HUNKYDORY</t>
+  </si>
+  <si>
+    <t>Hunkydory</t>
+  </si>
+  <si>
+    <t>P-MOKESMOE</t>
+  </si>
+  <si>
+    <t>&lt;a href="https://twitter.com/mokesmoe" «BLANK»&gt;Tim Nicholson&lt;/a&gt; (mokesmoe)</t>
+  </si>
+  <si>
+    <t>P-THATSCAR</t>
+  </si>
+  <si>
+    <t>Skalmantas Šimenas (that Scar)</t>
+  </si>
+  <si>
+    <t>P-JOEL</t>
+  </si>
+  <si>
+    <t>&lt;a href="https://joelthefox.github.io/"&gt;Joel&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>P-MARCOSD</t>
+  </si>
+  <si>
+    <t>&lt;a href="https://twitter.com/marcos_don" «BLANK»&gt;Marcos Donnantuoni&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>P-RICHARDSON</t>
+  </si>
+  <si>
+    <t>&lt;a href="https://plus.google.com/u/0/112121953522427737858" «BLANK»&gt;Mark Richardson&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="https://plus.google.com/u/0/116049570908402327989" «BLANK»&gt;S Mattison&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>P-MATTISON</t>
+  </si>
+  <si>
+    <t>P-CHZ</t>
+  </si>
+  <si>
+    <t>&lt;a href="https://twitter.com/InfinitNutshell" «BLANK»&gt;Jamie Perconti&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>P-PERCONTI</t>
+  </si>
+  <si>
+    <t>&lt;a href="http://warpdoor.com/tag/thegreatescaper/" «BLANK»&gt;TheGreatEscaper&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>P-ESCAPER</t>
+  </si>
+  <si>
+    <t>P-VANDEVANDER</t>
+  </si>
+  <si>
+    <t>&lt;a href="https://twitter.com/mvandevander" «BLANK»&gt;Matthew VanDevander&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>P-GRANT</t>
+  </si>
+  <si>
+    <t>&lt;a href="http://lunarchstudios.com/" «BLANK»&gt;Elyot Grant&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="https://chz.itch.io/" «BLANK» &gt;Ili Butterfield&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>P-AHLMAN</t>
+  </si>
+  <si>
+    <t>&lt;a href="https://twitter.com/ahlmanove" «BLANK»&gt;Ove Ahlman&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="https://twitter.com/edderiofer" «BLANK»&gt;Edderiofer&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>P-EDDERIOFER</t>
   </si>
 </sst>
 </file>
@@ -2064,10 +2148,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E175"/>
+  <dimension ref="A1:E189"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A157" workbookViewId="0">
-      <selection activeCell="A175" sqref="A175"/>
+    <sheetView tabSelected="1" topLeftCell="A172" workbookViewId="0">
+      <selection activeCell="A189" sqref="A188:B189"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3462,10 +3546,10 @@
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
+        <v>344</v>
+      </c>
+      <c r="B173" t="s">
         <v>345</v>
-      </c>
-      <c r="B173" t="s">
-        <v>346</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.35">
@@ -3473,15 +3557,127 @@
         <v>341</v>
       </c>
       <c r="B174" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
+        <v>342</v>
+      </c>
+      <c r="B175" t="s">
         <v>343</v>
       </c>
-      <c r="B175" t="s">
-        <v>344</v>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A176" t="s">
+        <v>347</v>
+      </c>
+      <c r="B176" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A177" t="s">
+        <v>349</v>
+      </c>
+      <c r="B177" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A178" t="s">
+        <v>351</v>
+      </c>
+      <c r="B178" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A179" t="s">
+        <v>353</v>
+      </c>
+      <c r="B179" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A180" t="s">
+        <v>355</v>
+      </c>
+      <c r="B180" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A181" t="s">
+        <v>357</v>
+      </c>
+      <c r="B181" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A182" t="s">
+        <v>360</v>
+      </c>
+      <c r="B182" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A183" t="s">
+        <v>361</v>
+      </c>
+      <c r="B183" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A184" t="s">
+        <v>363</v>
+      </c>
+      <c r="B184" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A185" t="s">
+        <v>365</v>
+      </c>
+      <c r="B185" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A186" t="s">
+        <v>366</v>
+      </c>
+      <c r="B186" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A187" t="s">
+        <v>368</v>
+      </c>
+      <c r="B187" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A188" t="s">
+        <v>371</v>
+      </c>
+      <c r="B188" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A189" t="s">
+        <v>374</v>
+      </c>
+      <c r="B189" t="s">
+        <v>373</v>
       </c>
     </row>
   </sheetData>

--- a/cms/Variables.xlsx
+++ b/cms/Variables.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="375">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="377">
   <si>
     <t>Content</t>
   </si>
@@ -1144,6 +1144,12 @@
   </si>
   <si>
     <t>P-EDDERIOFER</t>
+  </si>
+  <si>
+    <t>DO-COMMENT</t>
+  </si>
+  <si>
+    <t>&lt;a href="#" onclick="RequestGuestbook()"&gt;Leave a comment!&lt;/a&gt;</t>
   </si>
 </sst>
 </file>
@@ -2148,10 +2154,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E189"/>
+  <dimension ref="A1:E190"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A172" workbookViewId="0">
-      <selection activeCell="A189" sqref="A188:B189"/>
+    <sheetView tabSelected="1" topLeftCell="A171" workbookViewId="0">
+      <selection activeCell="A190" sqref="A190"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3680,6 +3686,14 @@
         <v>373</v>
       </c>
     </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A190" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="B190" s="2" t="s">
+        <v>376</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
